--- a/Jamie/Benchmark_csv/Benchmark table in Excel.xlsx
+++ b/Jamie/Benchmark_csv/Benchmark table in Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foong\Google Drive\PREWORK_JT\Project_2\Project_2\Jamie\Benchmark_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3970685-2EDC-47B5-9F27-A715A7BE5800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C18FC1-C149-4C57-B0FE-70B1D33A04E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5ED0A3BE-DDE0-4D99-8AB8-87EA002B46C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -602,9 +602,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5574,7 +5574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024C8156-31E8-47DB-9524-6322BB6E985B}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024C8156-31E8-47DB-9524-6322BB6E985B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E231" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
@@ -6744,7 +6744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B1" t="s">
@@ -6752,18 +6752,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -9784,7 +9784,7 @@
   <dimension ref="A1:O441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="G435" sqref="G435"/>
+      <selection activeCell="E432" sqref="E432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -9851,13 +9851,13 @@
       <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>150000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>210000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>180000</v>
       </c>
       <c r="I2" t="str">
@@ -9885,13 +9885,13 @@
       <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>160000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>210000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>185000</v>
       </c>
       <c r="I3" t="str">
@@ -9919,13 +9919,13 @@
       <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>140000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>180000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>160000</v>
       </c>
       <c r="I4" t="str">
@@ -9953,13 +9953,13 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>150000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>200000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>175000</v>
       </c>
       <c r="I5" t="str">
@@ -9987,13 +9987,13 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>150000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>200000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>175000</v>
       </c>
       <c r="I6" t="str">
@@ -10021,13 +10021,13 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>160000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>210000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>185000</v>
       </c>
       <c r="I7" t="str">
@@ -10055,13 +10055,13 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>140000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>180000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>160000</v>
       </c>
       <c r="I8" t="str">
@@ -10089,13 +10089,13 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>130000</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>160000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>145000</v>
       </c>
       <c r="I9" t="str">
@@ -10123,13 +10123,13 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>80000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>130000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>105000</v>
       </c>
       <c r="I10" t="str">
@@ -10157,13 +10157,13 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>130000</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>160000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>145000</v>
       </c>
       <c r="I11" t="str">
@@ -10191,13 +10191,13 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>120000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>150000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>135000</v>
       </c>
       <c r="I12" t="str">
@@ -10225,13 +10225,13 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>95000</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>140000</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>118000</v>
       </c>
       <c r="I13" t="str">
@@ -10259,13 +10259,13 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>65000</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>95000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>80000</v>
       </c>
       <c r="I14" t="str">
@@ -10293,13 +10293,13 @@
       <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>120000</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>170000</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>145000</v>
       </c>
       <c r="I15" t="str">
@@ -10327,13 +10327,13 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>130000</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>160000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>145000</v>
       </c>
       <c r="I16" t="str">
@@ -10361,13 +10361,13 @@
       <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>140000</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>200000</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>170000</v>
       </c>
       <c r="I17" t="str">
@@ -10395,13 +10395,13 @@
       <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>80000</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>140000</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>110000</v>
       </c>
       <c r="I18" t="str">
@@ -10429,13 +10429,13 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>150000</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>170000</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>160000</v>
       </c>
       <c r="I19" t="str">
@@ -10463,13 +10463,13 @@
       <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>140000</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>160000</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>150000</v>
       </c>
       <c r="I20" t="str">
@@ -10497,13 +10497,13 @@
       <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>110000</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>140000</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>125000</v>
       </c>
       <c r="I21" t="str">
@@ -10531,13 +10531,13 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>80000</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>100000</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>90000</v>
       </c>
       <c r="I22" t="str">
@@ -10565,13 +10565,13 @@
       <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>140000</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>160000</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>150000</v>
       </c>
       <c r="I23" t="str">
@@ -10599,13 +10599,13 @@
       <c r="E24" t="s">
         <v>42</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>110000</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>140000</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>125000</v>
       </c>
       <c r="I24" t="str">
@@ -10633,13 +10633,13 @@
       <c r="E25" t="s">
         <v>42</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>120000</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>160000</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>140000</v>
       </c>
       <c r="I25" t="str">
@@ -10667,13 +10667,13 @@
       <c r="E26" t="s">
         <v>42</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>130000</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>160000</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>145000</v>
       </c>
       <c r="I26" t="str">
@@ -10701,13 +10701,13 @@
       <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>880</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>1280</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
         <v>1080</v>
       </c>
       <c r="I27" t="str">
@@ -10735,13 +10735,13 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>880</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>1280</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
         <v>1080</v>
       </c>
       <c r="I28" t="str">
@@ -10769,13 +10769,13 @@
       <c r="E29" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>880</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>1120</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <v>1000</v>
       </c>
       <c r="I29" t="str">
@@ -10803,13 +10803,13 @@
       <c r="E30" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>880</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1200</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
         <v>1040</v>
       </c>
       <c r="I30" t="str">
@@ -10837,13 +10837,13 @@
       <c r="E31" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>880</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>1200</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <v>1040</v>
       </c>
       <c r="I31" t="str">
@@ -10871,13 +10871,13 @@
       <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>880</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>1200</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <v>1040</v>
       </c>
       <c r="I32" t="str">
@@ -10905,13 +10905,13 @@
       <c r="E33" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>880</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="4">
         <v>1120</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="4">
         <v>1000</v>
       </c>
       <c r="I33" t="str">
@@ -10939,13 +10939,13 @@
       <c r="E34" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>720</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <v>1000</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <v>864</v>
       </c>
       <c r="I34" t="str">
@@ -10973,13 +10973,13 @@
       <c r="E35" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>480</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <v>720</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <v>600</v>
       </c>
       <c r="I35" t="str">
@@ -11007,13 +11007,13 @@
       <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
         <v>720</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="4">
         <v>1000</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <v>864</v>
       </c>
       <c r="I36" t="str">
@@ -11041,13 +11041,13 @@
       <c r="E37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>720</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="4">
         <v>960</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="4">
         <v>840</v>
       </c>
       <c r="I37" t="str">
@@ -11075,13 +11075,13 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>600</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="4">
         <v>880</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <v>744</v>
       </c>
       <c r="I38" t="str">
@@ -11109,13 +11109,13 @@
       <c r="E39" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>400</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="4">
         <v>600</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="4">
         <v>504</v>
       </c>
       <c r="I39" t="str">
@@ -11143,13 +11143,13 @@
       <c r="E40" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>640</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="4">
         <v>1000</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="4">
         <v>824</v>
       </c>
       <c r="I40" t="str">
@@ -11177,13 +11177,13 @@
       <c r="E41" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>720</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="4">
         <v>1000</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="4">
         <v>864</v>
       </c>
       <c r="I41" t="str">
@@ -11211,13 +11211,13 @@
       <c r="E42" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>760</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="4">
         <v>1200</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="4">
         <v>984</v>
       </c>
       <c r="I42" t="str">
@@ -11245,13 +11245,13 @@
       <c r="E43" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>480</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <v>760</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="4">
         <v>624</v>
       </c>
       <c r="I43" t="str">
@@ -11279,13 +11279,13 @@
       <c r="E44" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="4">
         <v>7200</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="4">
         <v>8000</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="4">
         <v>7600</v>
       </c>
       <c r="I44" t="str">
@@ -11313,13 +11313,13 @@
       <c r="E45" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="4">
         <v>6400</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="4">
         <v>8000</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="4">
         <v>7200</v>
       </c>
       <c r="I45" t="str">
@@ -11347,13 +11347,13 @@
       <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="4">
         <v>5600</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="4">
         <v>7200</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="4">
         <v>6400</v>
       </c>
       <c r="I46" t="str">
@@ -11381,13 +11381,13 @@
       <c r="E47" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="4">
         <v>4800</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="4">
         <v>6400</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="4">
         <v>5600</v>
       </c>
       <c r="I47" t="str">
@@ -11415,13 +11415,13 @@
       <c r="E48" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="4">
         <v>7200</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="4">
         <v>8800</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="4">
         <v>8000</v>
       </c>
       <c r="I48" t="str">
@@ -11449,13 +11449,13 @@
       <c r="E49" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="4">
         <v>5600</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="4">
         <v>7200</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="4">
         <v>6400</v>
       </c>
       <c r="I49" t="str">
@@ -11483,13 +11483,13 @@
       <c r="E50" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>6400</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="4">
         <v>8800</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="4">
         <v>7600</v>
       </c>
       <c r="I50" t="str">
@@ -11517,13 +11517,13 @@
       <c r="E51" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>6400</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="4">
         <v>8000</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="4">
         <v>7200</v>
       </c>
       <c r="I51" t="str">
@@ -11545,19 +11545,19 @@
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
         <v>42</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>160000</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>220000</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>190000</v>
       </c>
       <c r="I52" t="str">
@@ -11579,19 +11579,19 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
         <v>42</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>140000</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>170000</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>155000</v>
       </c>
       <c r="I53" t="str">
@@ -11613,19 +11613,19 @@
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
         <v>42</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>105000</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>130000</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>118000</v>
       </c>
       <c r="I54" t="str">
@@ -11647,19 +11647,19 @@
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
         <v>42</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>150000</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>180000</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>165000</v>
       </c>
       <c r="I55" t="str">
@@ -11681,19 +11681,19 @@
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
         <v>42</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>120000</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>150000</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>135000</v>
       </c>
       <c r="I56" t="str">
@@ -11715,19 +11715,19 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>90000</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>125000</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>108000</v>
       </c>
       <c r="I57" t="str">
@@ -11749,19 +11749,19 @@
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>80000</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>95000</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>88000</v>
       </c>
       <c r="I58" t="str">
@@ -11783,19 +11783,19 @@
       <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>100000</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>130000</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>115000</v>
       </c>
       <c r="I59" t="str">
@@ -11817,19 +11817,19 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="4">
         <v>904</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="4">
         <v>1280</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="4">
         <v>1096</v>
       </c>
       <c r="I60" t="str">
@@ -11851,19 +11851,19 @@
       <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="4">
         <v>776</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="4">
         <v>920</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="4">
         <v>848</v>
       </c>
       <c r="I61" t="str">
@@ -11885,19 +11885,19 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="4">
         <v>576</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="4">
         <v>720</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="4">
         <v>648</v>
       </c>
       <c r="I62" t="str">
@@ -11919,19 +11919,19 @@
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="4">
         <v>800</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="4">
         <v>1048</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="4">
         <v>928</v>
       </c>
       <c r="I63" t="str">
@@ -11953,19 +11953,19 @@
       <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="4">
         <v>720</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="4">
         <v>896</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="4">
         <v>808</v>
       </c>
       <c r="I64" t="str">
@@ -11987,19 +11987,19 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="4">
         <v>600</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="4">
         <v>752</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="4">
         <v>680</v>
       </c>
       <c r="I65" t="str">
@@ -12021,19 +12021,19 @@
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="4">
         <v>440</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="4">
         <v>600</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="4">
         <v>520</v>
       </c>
       <c r="I66" t="str">
@@ -12055,19 +12055,19 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="4">
         <v>600</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="4">
         <v>880</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="4">
         <v>744</v>
       </c>
       <c r="I67" t="str">
@@ -12095,13 +12095,13 @@
       <c r="E68" t="s">
         <v>42</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>140000</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>180000</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="4">
         <v>160000</v>
       </c>
       <c r="I68" t="str">
@@ -12129,13 +12129,13 @@
       <c r="E69" t="s">
         <v>42</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>145000</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>185000</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>165000</v>
       </c>
       <c r="I69" t="str">
@@ -12163,13 +12163,13 @@
       <c r="E70" t="s">
         <v>42</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>115000</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>145000</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="4">
         <v>130000</v>
       </c>
       <c r="I70" t="str">
@@ -12197,13 +12197,13 @@
       <c r="E71" t="s">
         <v>42</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>125000</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>140000</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="4">
         <v>133000</v>
       </c>
       <c r="I71" t="str">
@@ -12231,13 +12231,13 @@
       <c r="E72" t="s">
         <v>42</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>100000</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>125000</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="4">
         <v>113000</v>
       </c>
       <c r="I72" t="str">
@@ -12265,13 +12265,13 @@
       <c r="E73" t="s">
         <v>42</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="4">
         <v>90000</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <v>120000</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="4">
         <v>105000</v>
       </c>
       <c r="I73" t="str">
@@ -12299,13 +12299,13 @@
       <c r="E74" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="4">
         <v>840</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="4">
         <v>1240</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="4">
         <v>1040</v>
       </c>
       <c r="I74" t="str">
@@ -12333,13 +12333,13 @@
       <c r="E75" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="4">
         <v>960</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="4">
         <v>1280</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="4">
         <v>1120</v>
       </c>
       <c r="I75" t="str">
@@ -12367,13 +12367,13 @@
       <c r="E76" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="4">
         <v>880</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="4">
         <v>1080</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="4">
         <v>984</v>
       </c>
       <c r="I76" t="str">
@@ -12401,13 +12401,13 @@
       <c r="E77" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="4">
         <v>720</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="4">
         <v>920</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="4">
         <v>824</v>
       </c>
       <c r="I77" t="str">
@@ -12435,13 +12435,13 @@
       <c r="E78" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="4">
         <v>640</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="4">
         <v>840</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="4">
         <v>744</v>
       </c>
       <c r="I78" t="str">
@@ -12469,13 +12469,13 @@
       <c r="E79" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="4">
         <v>640</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="4">
         <v>800</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="4">
         <v>720</v>
       </c>
       <c r="I79" t="str">
@@ -12503,13 +12503,13 @@
       <c r="E80" t="s">
         <v>42</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <v>100000</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <v>185000</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="4">
         <v>143000</v>
       </c>
       <c r="I80" t="str">
@@ -12537,13 +12537,13 @@
       <c r="E81" t="s">
         <v>42</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <v>90000</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>150000</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="4">
         <v>120000</v>
       </c>
       <c r="I81" t="str">
@@ -12571,13 +12571,13 @@
       <c r="E82" t="s">
         <v>42</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>70000</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <v>110000</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="4">
         <v>90000</v>
       </c>
       <c r="I82" t="str">
@@ -12605,13 +12605,13 @@
       <c r="E83" t="s">
         <v>42</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>90000</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>130000</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="4">
         <v>110000</v>
       </c>
       <c r="I83" t="str">
@@ -12639,13 +12639,13 @@
       <c r="E84" t="s">
         <v>42</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>70000</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <v>100000</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="4">
         <v>85000</v>
       </c>
       <c r="I84" t="str">
@@ -12673,13 +12673,13 @@
       <c r="E85" t="s">
         <v>42</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="4">
         <v>70000</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>110000</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="4">
         <v>90000</v>
       </c>
       <c r="I85" t="str">
@@ -12707,13 +12707,13 @@
       <c r="E86" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="4">
         <v>800</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="4">
         <v>1200</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="4">
         <v>1000</v>
       </c>
       <c r="I86" t="str">
@@ -12741,13 +12741,13 @@
       <c r="E87" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="4">
         <v>640</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="4">
         <v>1040</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="4">
         <v>840</v>
       </c>
       <c r="I87" t="str">
@@ -12775,13 +12775,13 @@
       <c r="E88" t="s">
         <v>45</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="4">
         <v>480</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="4">
         <v>800</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="4">
         <v>640</v>
       </c>
       <c r="I88" t="str">
@@ -12809,13 +12809,13 @@
       <c r="E89" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="4">
         <v>680</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="4">
         <v>880</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="4">
         <v>784</v>
       </c>
       <c r="I89" t="str">
@@ -12843,13 +12843,13 @@
       <c r="E90" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="4">
         <v>400</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="4">
         <v>720</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="4">
         <v>560</v>
       </c>
       <c r="I90" t="str">
@@ -12877,13 +12877,13 @@
       <c r="E91" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="4">
         <v>480</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="4">
         <v>760</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="4">
         <v>624</v>
       </c>
       <c r="I91" t="str">
@@ -12911,13 +12911,13 @@
       <c r="E92" t="s">
         <v>42</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="4">
         <v>100000</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <v>200000</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="4">
         <v>150000</v>
       </c>
       <c r="I92" t="str">
@@ -12945,13 +12945,13 @@
       <c r="E93" t="s">
         <v>42</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="4">
         <v>110000</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <v>170000</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="4">
         <v>140000</v>
       </c>
       <c r="I93" t="str">
@@ -12979,13 +12979,13 @@
       <c r="E94" t="s">
         <v>42</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="4">
         <v>70000</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <v>140000</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="4">
         <v>105000</v>
       </c>
       <c r="I94" t="str">
@@ -13013,13 +13013,13 @@
       <c r="E95" t="s">
         <v>42</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="4">
         <v>130000</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>190000</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="4">
         <v>160000</v>
       </c>
       <c r="I95" t="str">
@@ -13047,13 +13047,13 @@
       <c r="E96" t="s">
         <v>42</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="4">
         <v>100000</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <v>160000</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="4">
         <v>130000</v>
       </c>
       <c r="I96" t="str">
@@ -13081,13 +13081,13 @@
       <c r="E97" t="s">
         <v>42</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="4">
         <v>80000</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <v>110000</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="4">
         <v>95000</v>
       </c>
       <c r="I97" t="str">
@@ -13115,13 +13115,13 @@
       <c r="E98" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="4">
         <v>800</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="4">
         <v>1360</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="4">
         <v>1080</v>
       </c>
       <c r="I98" t="str">
@@ -13149,13 +13149,13 @@
       <c r="E99" t="s">
         <v>45</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="4">
         <v>640</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="4">
         <v>1040</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="4">
         <v>840</v>
       </c>
       <c r="I99" t="str">
@@ -13183,13 +13183,13 @@
       <c r="E100" t="s">
         <v>45</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="4">
         <v>480</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="4">
         <v>800</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="4">
         <v>640</v>
       </c>
       <c r="I100" t="str">
@@ -13217,13 +13217,13 @@
       <c r="E101" t="s">
         <v>45</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="4">
         <v>760</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="4">
         <v>1120</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="4">
         <v>944</v>
       </c>
       <c r="I101" t="str">
@@ -13251,13 +13251,13 @@
       <c r="E102" t="s">
         <v>45</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="4">
         <v>600</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="4">
         <v>1000</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="4">
         <v>800</v>
       </c>
       <c r="I102" t="str">
@@ -13285,13 +13285,13 @@
       <c r="E103" t="s">
         <v>45</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="4">
         <v>440</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="4">
         <v>760</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="4">
         <v>600</v>
       </c>
       <c r="I103" t="str">
@@ -13319,13 +13319,13 @@
       <c r="E104" t="s">
         <v>42</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="4">
         <v>160000</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>190000</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="4">
         <v>175000</v>
       </c>
       <c r="I104" t="str">
@@ -13353,13 +13353,13 @@
       <c r="E105" t="s">
         <v>42</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="4">
         <v>150000</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>170000</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="4">
         <v>160000</v>
       </c>
       <c r="I105" t="str">
@@ -13387,13 +13387,13 @@
       <c r="E106" t="s">
         <v>42</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="4">
         <v>140000</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>165000</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="4">
         <v>153000</v>
       </c>
       <c r="I106" t="str">
@@ -13421,13 +13421,13 @@
       <c r="E107" t="s">
         <v>42</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="4">
         <v>125000</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>140000</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="4">
         <v>133000</v>
       </c>
       <c r="I107" t="str">
@@ -13455,13 +13455,13 @@
       <c r="E108" t="s">
         <v>42</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="4">
         <v>90000</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>135000</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="4">
         <v>113000</v>
       </c>
       <c r="I108" t="str">
@@ -13489,13 +13489,13 @@
       <c r="E109" t="s">
         <v>42</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>120000</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>150000</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="4">
         <v>135000</v>
       </c>
       <c r="I109" t="str">
@@ -13523,13 +13523,13 @@
       <c r="E110" t="s">
         <v>42</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="4">
         <v>100000</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>120000</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="4">
         <v>110000</v>
       </c>
       <c r="I110" t="str">
@@ -13557,13 +13557,13 @@
       <c r="E111" t="s">
         <v>42</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="4">
         <v>160000</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>190000</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="4">
         <v>175000</v>
       </c>
       <c r="I111" t="str">
@@ -13591,13 +13591,13 @@
       <c r="E112" t="s">
         <v>42</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="4">
         <v>130000</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>160000</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="4">
         <v>145000</v>
       </c>
       <c r="I112" t="str">
@@ -13625,13 +13625,13 @@
       <c r="E113" t="s">
         <v>42</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>120000</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>150000</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="4">
         <v>135000</v>
       </c>
       <c r="I113" t="str">
@@ -13659,13 +13659,13 @@
       <c r="E114" t="s">
         <v>42</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>110000</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>140000</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="4">
         <v>125000</v>
       </c>
       <c r="I114" t="str">
@@ -13693,13 +13693,13 @@
       <c r="E115" t="s">
         <v>42</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="4">
         <v>120000</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>140000</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="4">
         <v>130000</v>
       </c>
       <c r="I115" t="str">
@@ -13727,13 +13727,13 @@
       <c r="E116" t="s">
         <v>42</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="4">
         <v>100000</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>120000</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="4">
         <v>110000</v>
       </c>
       <c r="I116" t="str">
@@ -13761,13 +13761,13 @@
       <c r="E117" t="s">
         <v>42</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="4">
         <v>75000</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>100000</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="4">
         <v>88000</v>
       </c>
       <c r="I117" t="str">
@@ -13795,13 +13795,13 @@
       <c r="E118" t="s">
         <v>42</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="4">
         <v>115000</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>140000</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="4">
         <v>128000</v>
       </c>
       <c r="I118" t="str">
@@ -13829,13 +13829,13 @@
       <c r="E119" t="s">
         <v>42</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>100000</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>120000</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="4">
         <v>110000</v>
       </c>
       <c r="I119" t="str">
@@ -13863,13 +13863,13 @@
       <c r="E120" t="s">
         <v>42</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="4">
         <v>115000</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="4">
         <v>140000</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="4">
         <v>128000</v>
       </c>
       <c r="I120" t="str">
@@ -13897,13 +13897,13 @@
       <c r="E121" t="s">
         <v>42</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="4">
         <v>150000</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="4">
         <v>165000</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="4">
         <v>158000</v>
       </c>
       <c r="I121" t="str">
@@ -13931,13 +13931,13 @@
       <c r="E122" t="s">
         <v>42</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="4">
         <v>130000</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <v>150000</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="4">
         <v>140000</v>
       </c>
       <c r="I122" t="str">
@@ -13965,13 +13965,13 @@
       <c r="E123" t="s">
         <v>42</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="4">
         <v>70000</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <v>95000</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="4">
         <v>83000</v>
       </c>
       <c r="I123" t="str">
@@ -13999,13 +13999,13 @@
       <c r="E124" t="s">
         <v>42</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="4">
         <v>80000</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <v>120000</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="4">
         <v>100000</v>
       </c>
       <c r="I124" t="str">
@@ -14033,13 +14033,13 @@
       <c r="E125" t="s">
         <v>42</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="4">
         <v>135000</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <v>150000</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="4">
         <v>143000</v>
       </c>
       <c r="I125" t="str">
@@ -14067,13 +14067,13 @@
       <c r="E126" t="s">
         <v>42</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="4">
         <v>100000</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="4">
         <v>135000</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="4">
         <v>118000</v>
       </c>
       <c r="I126" t="str">
@@ -14101,13 +14101,13 @@
       <c r="E127" t="s">
         <v>42</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="4">
         <v>90000</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="4">
         <v>120000</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="4">
         <v>105000</v>
       </c>
       <c r="I127" t="str">
@@ -14135,13 +14135,13 @@
       <c r="E128" t="s">
         <v>45</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="4">
         <v>960</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="4">
         <v>1120</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="4">
         <v>1040</v>
       </c>
       <c r="I128" t="str">
@@ -14169,13 +14169,13 @@
       <c r="E129" t="s">
         <v>45</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="4">
         <v>880</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="4">
         <v>1040</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="4">
         <v>960</v>
       </c>
       <c r="I129" t="str">
@@ -14203,13 +14203,13 @@
       <c r="E130" t="s">
         <v>45</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="4">
         <v>800</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="4">
         <v>920</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="4">
         <v>864</v>
       </c>
       <c r="I130" t="str">
@@ -14237,13 +14237,13 @@
       <c r="E131" t="s">
         <v>45</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="4">
         <v>640</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131" s="4">
         <v>800</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="4">
         <v>720</v>
       </c>
       <c r="I131" t="str">
@@ -14271,13 +14271,13 @@
       <c r="E132" t="s">
         <v>45</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="4">
         <v>520</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132" s="4">
         <v>720</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="4">
         <v>624</v>
       </c>
       <c r="I132" t="str">
@@ -14305,13 +14305,13 @@
       <c r="E133" t="s">
         <v>45</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="4">
         <v>600</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="4">
         <v>800</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="4">
         <v>704</v>
       </c>
       <c r="I133" t="str">
@@ -14339,13 +14339,13 @@
       <c r="E134" t="s">
         <v>45</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="4">
         <v>520</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="4">
         <v>640</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="4">
         <v>584</v>
       </c>
       <c r="I134" t="str">
@@ -14373,13 +14373,13 @@
       <c r="E135" t="s">
         <v>45</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="4">
         <v>960</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="4">
         <v>1160</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="4">
         <v>1064</v>
       </c>
       <c r="I135" t="str">
@@ -14407,13 +14407,13 @@
       <c r="E136" t="s">
         <v>45</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="4">
         <v>720</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="4">
         <v>960</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="4">
         <v>840</v>
       </c>
       <c r="I136" t="str">
@@ -14441,13 +14441,13 @@
       <c r="E137" t="s">
         <v>45</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="4">
         <v>680</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="4">
         <v>880</v>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="4">
         <v>784</v>
       </c>
       <c r="I137" t="str">
@@ -14475,13 +14475,13 @@
       <c r="E138" t="s">
         <v>45</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="4">
         <v>640</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138" s="4">
         <v>840</v>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="4">
         <v>744</v>
       </c>
       <c r="I138" t="str">
@@ -14509,13 +14509,13 @@
       <c r="E139" t="s">
         <v>45</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="4">
         <v>680</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139" s="4">
         <v>800</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="4">
         <v>744</v>
       </c>
       <c r="I139" t="str">
@@ -14543,13 +14543,13 @@
       <c r="E140" t="s">
         <v>45</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="4">
         <v>680</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140" s="4">
         <v>800</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="4">
         <v>744</v>
       </c>
       <c r="I140" t="str">
@@ -14577,13 +14577,13 @@
       <c r="E141" t="s">
         <v>45</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="4">
         <v>480</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141" s="4">
         <v>640</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="4">
         <v>560</v>
       </c>
       <c r="I141" t="str">
@@ -14611,13 +14611,13 @@
       <c r="E142" t="s">
         <v>45</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="4">
         <v>640</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142" s="4">
         <v>800</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="4">
         <v>720</v>
       </c>
       <c r="I142" t="str">
@@ -14645,13 +14645,13 @@
       <c r="E143" t="s">
         <v>45</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="4">
         <v>520</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="4">
         <v>720</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="4">
         <v>624</v>
       </c>
       <c r="I143" t="str">
@@ -14679,13 +14679,13 @@
       <c r="E144" t="s">
         <v>45</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="4">
         <v>640</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="4">
         <v>800</v>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="4">
         <v>720</v>
       </c>
       <c r="I144" t="str">
@@ -14713,13 +14713,13 @@
       <c r="E145" t="s">
         <v>45</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="4">
         <v>840</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="4">
         <v>1000</v>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="4">
         <v>920</v>
       </c>
       <c r="I145" t="str">
@@ -14747,13 +14747,13 @@
       <c r="E146" t="s">
         <v>45</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="4">
         <v>720</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146" s="4">
         <v>880</v>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="4">
         <v>800</v>
       </c>
       <c r="I146" t="str">
@@ -14781,13 +14781,13 @@
       <c r="E147" t="s">
         <v>45</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="4">
         <v>400</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147" s="4">
         <v>520</v>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="4">
         <v>464</v>
       </c>
       <c r="I147" t="str">
@@ -14815,13 +14815,13 @@
       <c r="E148" t="s">
         <v>45</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="4">
         <v>440</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="4">
         <v>600</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="4">
         <v>520</v>
       </c>
       <c r="I148" t="str">
@@ -14849,13 +14849,13 @@
       <c r="E149" t="s">
         <v>45</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="4">
         <v>720</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149" s="4">
         <v>920</v>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="4">
         <v>824</v>
       </c>
       <c r="I149" t="str">
@@ -14883,13 +14883,13 @@
       <c r="E150" t="s">
         <v>45</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="4">
         <v>640</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150" s="4">
         <v>800</v>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="4">
         <v>720</v>
       </c>
       <c r="I150" t="str">
@@ -14917,13 +14917,13 @@
       <c r="E151" t="s">
         <v>45</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="4">
         <v>600</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151" s="4">
         <v>720</v>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="4">
         <v>664</v>
       </c>
       <c r="I151" t="str">
@@ -14951,13 +14951,13 @@
       <c r="E152" t="s">
         <v>42</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="4">
         <v>120000</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="4">
         <v>160000</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="4">
         <v>140000</v>
       </c>
       <c r="I152" t="str">
@@ -14985,13 +14985,13 @@
       <c r="E153" t="s">
         <v>42</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="4">
         <v>130000</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="4">
         <v>170000</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="4">
         <v>150000</v>
       </c>
       <c r="I153" t="str">
@@ -15019,13 +15019,13 @@
       <c r="E154" t="s">
         <v>42</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="4">
         <v>150000</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="4">
         <v>210000</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="4">
         <v>180000</v>
       </c>
       <c r="I154" t="str">
@@ -15053,13 +15053,13 @@
       <c r="E155" t="s">
         <v>42</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="4">
         <v>160000</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <v>210000</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="4">
         <v>185000</v>
       </c>
       <c r="I155" t="str">
@@ -15087,13 +15087,13 @@
       <c r="E156" t="s">
         <v>42</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="4">
         <v>140000</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="4">
         <v>180000</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="4">
         <v>160000</v>
       </c>
       <c r="I156" t="str">
@@ -15121,13 +15121,13 @@
       <c r="E157" t="s">
         <v>42</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="4">
         <v>100000</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="4">
         <v>165000</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="4">
         <v>133000</v>
       </c>
       <c r="I157" t="str">
@@ -15155,13 +15155,13 @@
       <c r="E158" t="s">
         <v>42</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="4">
         <v>65000</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="4">
         <v>140000</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="4">
         <v>103000</v>
       </c>
       <c r="I158" t="str">
@@ -15189,13 +15189,13 @@
       <c r="E159" t="s">
         <v>45</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="4">
         <v>640</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159" s="4">
         <v>880</v>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="4">
         <v>760</v>
       </c>
       <c r="I159" t="str">
@@ -15223,13 +15223,13 @@
       <c r="E160" t="s">
         <v>45</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="4">
         <v>800</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160" s="4">
         <v>1120</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="4">
         <v>960</v>
       </c>
       <c r="I160" t="str">
@@ -15257,13 +15257,13 @@
       <c r="E161" t="s">
         <v>45</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="4">
         <v>880</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="4">
         <v>1280</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="4">
         <v>1080</v>
       </c>
       <c r="I161" t="str">
@@ -15291,13 +15291,13 @@
       <c r="E162" t="s">
         <v>45</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="4">
         <v>880</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162" s="4">
         <v>1280</v>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="4">
         <v>1080</v>
       </c>
       <c r="I162" t="str">
@@ -15325,13 +15325,13 @@
       <c r="E163" t="s">
         <v>45</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="4">
         <v>880</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163" s="4">
         <v>1120</v>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="4">
         <v>1000</v>
       </c>
       <c r="I163" t="str">
@@ -15359,13 +15359,13 @@
       <c r="E164" t="s">
         <v>45</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="4">
         <v>640</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164" s="4">
         <v>1120</v>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="4">
         <v>880</v>
       </c>
       <c r="I164" t="str">
@@ -15393,13 +15393,13 @@
       <c r="E165" t="s">
         <v>45</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="4">
         <v>320</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165" s="4">
         <v>960</v>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="4">
         <v>640</v>
       </c>
       <c r="I165" t="str">
@@ -15427,13 +15427,13 @@
       <c r="E166" t="s">
         <v>42</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="4">
         <v>90000</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="4">
         <v>120000</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="4">
         <f>MROUND((F166+G166)/2,1000)</f>
         <v>105000</v>
       </c>
@@ -15462,13 +15462,13 @@
       <c r="E167" t="s">
         <v>42</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="4">
         <v>120000</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="4">
         <v>140000</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="4">
         <f t="shared" ref="H167:H186" si="3">MROUND((F167+G167)/2,1000)</f>
         <v>130000</v>
       </c>
@@ -15497,13 +15497,13 @@
       <c r="E168" t="s">
         <v>42</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="4">
         <v>130000</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="4">
         <v>180000</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="4">
         <f t="shared" si="3"/>
         <v>155000</v>
       </c>
@@ -15532,13 +15532,13 @@
       <c r="E169" t="s">
         <v>42</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="4">
         <v>115000</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="4">
         <v>140000</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="4">
         <f t="shared" si="3"/>
         <v>128000</v>
       </c>
@@ -15567,13 +15567,13 @@
       <c r="E170" t="s">
         <v>42</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="4">
         <v>135000</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="4">
         <v>155000</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="4">
         <f t="shared" si="3"/>
         <v>145000</v>
       </c>
@@ -15602,13 +15602,13 @@
       <c r="E171" t="s">
         <v>42</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="4">
         <v>155000</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="4">
         <v>200000</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="4">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
@@ -15637,13 +15637,13 @@
       <c r="E172" t="s">
         <v>42</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="4">
         <v>120000</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="4">
         <v>150000</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="4">
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
@@ -15672,13 +15672,13 @@
       <c r="E173" t="s">
         <v>42</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="4">
         <v>120000</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="4">
         <v>150000</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="4">
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
@@ -15707,13 +15707,13 @@
       <c r="E174" t="s">
         <v>42</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="4">
         <v>125000</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="4">
         <v>150000</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="4">
         <f t="shared" si="3"/>
         <v>138000</v>
       </c>
@@ -15742,13 +15742,13 @@
       <c r="E175" t="s">
         <v>42</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="4">
         <v>155000</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="4">
         <v>200000</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="4">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
@@ -15777,13 +15777,13 @@
       <c r="E176" t="s">
         <v>42</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="4">
         <v>135000</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="4">
         <v>165000</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="4">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
@@ -15812,13 +15812,13 @@
       <c r="E177" t="s">
         <v>42</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="4">
         <v>90000</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="4">
         <v>130000</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="4">
         <f t="shared" si="3"/>
         <v>110000</v>
       </c>
@@ -15847,13 +15847,13 @@
       <c r="E178" t="s">
         <v>42</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="4">
         <v>155000</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="4">
         <v>200000</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="4">
         <f t="shared" si="3"/>
         <v>178000</v>
       </c>
@@ -15882,13 +15882,13 @@
       <c r="E179" t="s">
         <v>42</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="4">
         <v>130000</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="4">
         <v>185000</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="4">
         <f t="shared" si="3"/>
         <v>158000</v>
       </c>
@@ -15917,13 +15917,13 @@
       <c r="E180" t="s">
         <v>42</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="4">
         <v>130000</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="4">
         <v>185000</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="4">
         <f t="shared" si="3"/>
         <v>158000</v>
       </c>
@@ -15952,13 +15952,13 @@
       <c r="E181" t="s">
         <v>42</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="4">
         <v>130000</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="4">
         <v>185000</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="4">
         <f t="shared" si="3"/>
         <v>158000</v>
       </c>
@@ -15987,13 +15987,13 @@
       <c r="E182" t="s">
         <v>42</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="4">
         <v>120000</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="4">
         <v>150000</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="4">
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
@@ -16022,13 +16022,13 @@
       <c r="E183" t="s">
         <v>42</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="4">
         <v>140000</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="4">
         <v>160000</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="4">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
@@ -16057,13 +16057,13 @@
       <c r="E184" t="s">
         <v>42</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="4">
         <v>125000</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="4">
         <v>150000</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="4">
         <f t="shared" si="3"/>
         <v>138000</v>
       </c>
@@ -16092,13 +16092,13 @@
       <c r="E185" t="s">
         <v>42</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>130000</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="4">
         <v>180000</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="4">
         <f t="shared" si="3"/>
         <v>155000</v>
       </c>
@@ -16127,13 +16127,13 @@
       <c r="E186" t="s">
         <v>42</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="4">
         <v>160000</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="4">
         <v>200000</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="4">
         <f t="shared" si="3"/>
         <v>180000</v>
       </c>
@@ -16162,13 +16162,13 @@
       <c r="E187" t="s">
         <v>45</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="4">
         <v>470</v>
       </c>
-      <c r="G187" s="1">
+      <c r="G187" s="4">
         <v>680</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="4">
         <f>ROUND((F187+G187)/2,0)</f>
         <v>575</v>
       </c>
@@ -16197,13 +16197,13 @@
       <c r="E188" t="s">
         <v>45</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188" s="4">
         <v>635</v>
       </c>
-      <c r="G188" s="1">
+      <c r="G188" s="4">
         <v>790</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="4">
         <f t="shared" ref="H188:H207" si="4">ROUND((F188+G188)/2,0)</f>
         <v>713</v>
       </c>
@@ -16232,13 +16232,13 @@
       <c r="E189" t="s">
         <v>45</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="4">
         <v>680</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="4">
         <v>1015</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="4">
         <f t="shared" si="4"/>
         <v>848</v>
       </c>
@@ -16267,13 +16267,13 @@
       <c r="E190" t="s">
         <v>45</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="4">
         <v>600</v>
       </c>
-      <c r="G190" s="1">
+      <c r="G190" s="4">
         <v>790</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="4">
         <f t="shared" si="4"/>
         <v>695</v>
       </c>
@@ -16302,13 +16302,13 @@
       <c r="E191" t="s">
         <v>45</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="4">
         <v>705</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G191" s="4">
         <v>875</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="4">
         <f t="shared" si="4"/>
         <v>790</v>
       </c>
@@ -16337,13 +16337,13 @@
       <c r="E192" t="s">
         <v>45</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192" s="4">
         <v>805</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="4">
         <v>1130</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="4">
         <f t="shared" si="4"/>
         <v>968</v>
       </c>
@@ -16372,13 +16372,13 @@
       <c r="E193" t="s">
         <v>45</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="4">
         <v>635</v>
       </c>
-      <c r="G193" s="1">
+      <c r="G193" s="4">
         <v>850</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="4">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
@@ -16407,13 +16407,13 @@
       <c r="E194" t="s">
         <v>45</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194" s="4">
         <v>635</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G194" s="4">
         <v>850</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="4">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
@@ -16442,13 +16442,13 @@
       <c r="E195" t="s">
         <v>45</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="4">
         <v>635</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195" s="4">
         <v>850</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="4">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
@@ -16477,13 +16477,13 @@
       <c r="E196" t="s">
         <v>45</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196" s="4">
         <v>805</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="4">
         <v>1130</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="4">
         <f t="shared" si="4"/>
         <v>968</v>
       </c>
@@ -16512,13 +16512,13 @@
       <c r="E197" t="s">
         <v>45</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="4">
         <v>705</v>
       </c>
-      <c r="G197" s="1">
+      <c r="G197" s="4">
         <v>930</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="4">
         <f t="shared" si="4"/>
         <v>818</v>
       </c>
@@ -16547,13 +16547,13 @@
       <c r="E198" t="s">
         <v>45</v>
       </c>
-      <c r="F198" s="1">
+      <c r="F198" s="4">
         <v>470</v>
       </c>
-      <c r="G198" s="1">
+      <c r="G198" s="4">
         <v>735</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="4">
         <f t="shared" si="4"/>
         <v>603</v>
       </c>
@@ -16582,13 +16582,13 @@
       <c r="E199" t="s">
         <v>45</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="4">
         <v>800</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="4">
         <v>1130</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="4">
         <f t="shared" si="4"/>
         <v>965</v>
       </c>
@@ -16617,13 +16617,13 @@
       <c r="E200" t="s">
         <v>45</v>
       </c>
-      <c r="F200" s="1">
+      <c r="F200" s="4">
         <v>680</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="4">
         <v>1045</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="4">
         <f t="shared" si="4"/>
         <v>863</v>
       </c>
@@ -16652,13 +16652,13 @@
       <c r="E201" t="s">
         <v>45</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="4">
         <v>680</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="4">
         <v>1045</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="4">
         <f t="shared" si="4"/>
         <v>863</v>
       </c>
@@ -16687,13 +16687,13 @@
       <c r="E202" t="s">
         <v>45</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202" s="4">
         <v>680</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="4">
         <v>1045</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="4">
         <f t="shared" si="4"/>
         <v>863</v>
       </c>
@@ -16722,13 +16722,13 @@
       <c r="E203" t="s">
         <v>45</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="4">
         <v>635</v>
       </c>
-      <c r="G203" s="1">
+      <c r="G203" s="4">
         <v>850</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="4">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
@@ -16757,13 +16757,13 @@
       <c r="E204" t="s">
         <v>45</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F204" s="4">
         <v>730</v>
       </c>
-      <c r="G204" s="1">
+      <c r="G204" s="4">
         <v>905</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="4">
         <f t="shared" si="4"/>
         <v>818</v>
       </c>
@@ -16792,13 +16792,13 @@
       <c r="E205" t="s">
         <v>45</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205" s="4">
         <v>650</v>
       </c>
-      <c r="G205" s="1">
+      <c r="G205" s="4">
         <v>850</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="4">
         <f t="shared" si="4"/>
         <v>750</v>
       </c>
@@ -16827,13 +16827,13 @@
       <c r="E206" t="s">
         <v>45</v>
       </c>
-      <c r="F206" s="1">
+      <c r="F206" s="4">
         <v>680</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="4">
         <v>1015</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="4">
         <f t="shared" si="4"/>
         <v>848</v>
       </c>
@@ -16862,13 +16862,13 @@
       <c r="E207" t="s">
         <v>45</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207" s="4">
         <v>835</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="4">
         <v>1130</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="4">
         <f t="shared" si="4"/>
         <v>983</v>
       </c>
@@ -16897,13 +16897,13 @@
       <c r="E208" t="s">
         <v>42</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="4">
         <v>90000</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G208" s="4">
         <v>120000</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="4">
         <f t="shared" ref="H208:H230" si="6">MROUND((F208+G208)/2,1000)</f>
         <v>105000</v>
       </c>
@@ -16932,13 +16932,13 @@
       <c r="E209" t="s">
         <v>42</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="4">
         <v>120000</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G209" s="4">
         <v>160000</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="4">
         <f t="shared" si="6"/>
         <v>140000</v>
       </c>
@@ -16967,13 +16967,13 @@
       <c r="E210" t="s">
         <v>42</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="4">
         <v>85000</v>
       </c>
-      <c r="G210" s="2">
+      <c r="G210" s="4">
         <v>120000</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="4">
         <f t="shared" si="6"/>
         <v>103000</v>
       </c>
@@ -17002,13 +17002,13 @@
       <c r="E211" t="s">
         <v>42</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211" s="4">
         <v>120000</v>
       </c>
-      <c r="G211" s="2">
+      <c r="G211" s="4">
         <v>130000</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="4">
         <f t="shared" si="6"/>
         <v>125000</v>
       </c>
@@ -17037,13 +17037,13 @@
       <c r="E212" t="s">
         <v>42</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="4">
         <v>105000</v>
       </c>
-      <c r="G212" s="2">
+      <c r="G212" s="4">
         <v>135000</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="4">
         <f t="shared" si="6"/>
         <v>120000</v>
       </c>
@@ -17072,13 +17072,13 @@
       <c r="E213" t="s">
         <v>42</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="4">
         <v>110000</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213" s="4">
         <v>140000</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="4">
         <f t="shared" si="6"/>
         <v>125000</v>
       </c>
@@ -17107,13 +17107,13 @@
       <c r="E214" t="s">
         <v>42</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="4">
         <v>140000</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214" s="4">
         <v>180000</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="4">
         <f t="shared" si="6"/>
         <v>160000</v>
       </c>
@@ -17142,13 +17142,13 @@
       <c r="E215" t="s">
         <v>42</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="4">
         <v>155000</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G215" s="4">
         <v>200000</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="4">
         <f t="shared" si="6"/>
         <v>178000</v>
       </c>
@@ -17177,13 +17177,13 @@
       <c r="E216" t="s">
         <v>42</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216" s="4">
         <v>120000</v>
       </c>
-      <c r="G216" s="2">
+      <c r="G216" s="4">
         <v>150000</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="4">
         <f t="shared" si="6"/>
         <v>135000</v>
       </c>
@@ -17212,13 +17212,13 @@
       <c r="E217" t="s">
         <v>42</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217" s="4">
         <v>120000</v>
       </c>
-      <c r="G217" s="2">
+      <c r="G217" s="4">
         <v>150000</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="4">
         <f t="shared" si="6"/>
         <v>135000</v>
       </c>
@@ -17247,13 +17247,13 @@
       <c r="E218" t="s">
         <v>42</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218" s="4">
         <v>125000</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G218" s="4">
         <v>150000</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="4">
         <f t="shared" si="6"/>
         <v>138000</v>
       </c>
@@ -17282,13 +17282,13 @@
       <c r="E219" t="s">
         <v>42</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219" s="4">
         <v>155000</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="4">
         <v>200000</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="4">
         <f t="shared" si="6"/>
         <v>178000</v>
       </c>
@@ -17317,13 +17317,13 @@
       <c r="E220" t="s">
         <v>42</v>
       </c>
-      <c r="F220" s="2">
+      <c r="F220" s="4">
         <v>135000</v>
       </c>
-      <c r="G220" s="2">
+      <c r="G220" s="4">
         <v>165000</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="4">
         <f t="shared" si="6"/>
         <v>150000</v>
       </c>
@@ -17352,13 +17352,13 @@
       <c r="E221" t="s">
         <v>42</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221" s="4">
         <v>90000</v>
       </c>
-      <c r="G221" s="2">
+      <c r="G221" s="4">
         <v>130000</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="4">
         <f t="shared" si="6"/>
         <v>110000</v>
       </c>
@@ -17387,13 +17387,13 @@
       <c r="E222" t="s">
         <v>42</v>
       </c>
-      <c r="F222" s="2">
+      <c r="F222" s="4">
         <v>155000</v>
       </c>
-      <c r="G222" s="2">
+      <c r="G222" s="4">
         <v>200000</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="4">
         <f t="shared" si="6"/>
         <v>178000</v>
       </c>
@@ -17422,13 +17422,13 @@
       <c r="E223" t="s">
         <v>42</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F223" s="4">
         <v>130000</v>
       </c>
-      <c r="G223" s="2">
+      <c r="G223" s="4">
         <v>185000</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="4">
         <f t="shared" si="6"/>
         <v>158000</v>
       </c>
@@ -17457,13 +17457,13 @@
       <c r="E224" t="s">
         <v>42</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224" s="4">
         <v>130000</v>
       </c>
-      <c r="G224" s="2">
+      <c r="G224" s="4">
         <v>185000</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="4">
         <f t="shared" si="6"/>
         <v>158000</v>
       </c>
@@ -17492,13 +17492,13 @@
       <c r="E225" t="s">
         <v>42</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225" s="4">
         <v>130000</v>
       </c>
-      <c r="G225" s="2">
+      <c r="G225" s="4">
         <v>185000</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="4">
         <f t="shared" si="6"/>
         <v>158000</v>
       </c>
@@ -17527,13 +17527,13 @@
       <c r="E226" t="s">
         <v>42</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226" s="4">
         <v>120000</v>
       </c>
-      <c r="G226" s="2">
+      <c r="G226" s="4">
         <v>150000</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="4">
         <f t="shared" si="6"/>
         <v>135000</v>
       </c>
@@ -17562,13 +17562,13 @@
       <c r="E227" t="s">
         <v>42</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227" s="4">
         <v>140000</v>
       </c>
-      <c r="G227" s="2">
+      <c r="G227" s="4">
         <v>160000</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="4">
         <f t="shared" si="6"/>
         <v>150000</v>
       </c>
@@ -17597,13 +17597,13 @@
       <c r="E228" t="s">
         <v>42</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228" s="4">
         <v>125000</v>
       </c>
-      <c r="G228" s="2">
+      <c r="G228" s="4">
         <v>150000</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="4">
         <f t="shared" si="6"/>
         <v>138000</v>
       </c>
@@ -17632,13 +17632,13 @@
       <c r="E229" t="s">
         <v>42</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229" s="4">
         <v>130000</v>
       </c>
-      <c r="G229" s="2">
+      <c r="G229" s="4">
         <v>180000</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="4">
         <f t="shared" si="6"/>
         <v>155000</v>
       </c>
@@ -17667,13 +17667,13 @@
       <c r="E230" t="s">
         <v>42</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230" s="4">
         <v>160000</v>
       </c>
-      <c r="G230" s="2">
+      <c r="G230" s="4">
         <v>200000</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="4">
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
@@ -17702,13 +17702,13 @@
       <c r="E231" t="s">
         <v>45</v>
       </c>
-      <c r="F231" s="1">
+      <c r="F231" s="4">
         <v>500</v>
       </c>
-      <c r="G231" s="1">
+      <c r="G231" s="4">
         <v>700</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="4">
         <f t="shared" ref="H231:H253" si="7">ROUND((F231+G231)/2,0)</f>
         <v>600</v>
       </c>
@@ -17737,13 +17737,13 @@
       <c r="E232" t="s">
         <v>45</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F232" s="4">
         <v>700</v>
       </c>
-      <c r="G232" s="1">
+      <c r="G232" s="4">
         <v>900</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="4">
         <f t="shared" si="7"/>
         <v>800</v>
       </c>
@@ -17772,13 +17772,13 @@
       <c r="E233" t="s">
         <v>45</v>
       </c>
-      <c r="F233" s="1">
+      <c r="F233" s="4">
         <v>450</v>
       </c>
-      <c r="G233" s="1">
+      <c r="G233" s="4">
         <v>900</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="4">
         <f t="shared" si="7"/>
         <v>675</v>
       </c>
@@ -17807,13 +17807,13 @@
       <c r="E234" t="s">
         <v>45</v>
       </c>
-      <c r="F234" s="1">
+      <c r="F234" s="4">
         <v>700</v>
       </c>
-      <c r="G234" s="1">
+      <c r="G234" s="4">
         <v>870</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="4">
         <f t="shared" si="7"/>
         <v>785</v>
       </c>
@@ -17842,13 +17842,13 @@
       <c r="E235" t="s">
         <v>45</v>
       </c>
-      <c r="F235" s="1">
+      <c r="F235" s="4">
         <v>600</v>
       </c>
-      <c r="G235" s="1">
+      <c r="G235" s="4">
         <v>890</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="4">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
@@ -17877,13 +17877,13 @@
       <c r="E236" t="s">
         <v>45</v>
       </c>
-      <c r="F236" s="1">
+      <c r="F236" s="4">
         <v>650</v>
       </c>
-      <c r="G236" s="1">
+      <c r="G236" s="4">
         <v>890</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="4">
         <f t="shared" si="7"/>
         <v>770</v>
       </c>
@@ -17912,13 +17912,13 @@
       <c r="E237" t="s">
         <v>45</v>
       </c>
-      <c r="F237" s="1">
+      <c r="F237" s="4">
         <v>890</v>
       </c>
-      <c r="G237" s="1">
+      <c r="G237" s="4">
         <v>950</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="4">
         <f t="shared" si="7"/>
         <v>920</v>
       </c>
@@ -17947,13 +17947,13 @@
       <c r="E238" t="s">
         <v>45</v>
       </c>
-      <c r="F238" s="1">
+      <c r="F238" s="4">
         <v>805</v>
       </c>
-      <c r="G238" s="2">
+      <c r="G238" s="4">
         <v>1130</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="4">
         <f t="shared" si="7"/>
         <v>968</v>
       </c>
@@ -17982,13 +17982,13 @@
       <c r="E239" t="s">
         <v>45</v>
       </c>
-      <c r="F239" s="1">
+      <c r="F239" s="4">
         <v>635</v>
       </c>
-      <c r="G239" s="1">
+      <c r="G239" s="4">
         <v>850</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="4">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
@@ -18017,13 +18017,13 @@
       <c r="E240" t="s">
         <v>45</v>
       </c>
-      <c r="F240" s="1">
+      <c r="F240" s="4">
         <v>635</v>
       </c>
-      <c r="G240" s="1">
+      <c r="G240" s="4">
         <v>850</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="4">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
@@ -18052,13 +18052,13 @@
       <c r="E241" t="s">
         <v>45</v>
       </c>
-      <c r="F241" s="1">
+      <c r="F241" s="4">
         <v>635</v>
       </c>
-      <c r="G241" s="1">
+      <c r="G241" s="4">
         <v>850</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="4">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
@@ -18087,13 +18087,13 @@
       <c r="E242" t="s">
         <v>45</v>
       </c>
-      <c r="F242" s="1">
+      <c r="F242" s="4">
         <v>805</v>
       </c>
-      <c r="G242" s="2">
+      <c r="G242" s="4">
         <v>1130</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="4">
         <f t="shared" si="7"/>
         <v>968</v>
       </c>
@@ -18122,13 +18122,13 @@
       <c r="E243" t="s">
         <v>45</v>
       </c>
-      <c r="F243" s="1">
+      <c r="F243" s="4">
         <v>705</v>
       </c>
-      <c r="G243" s="2">
+      <c r="G243" s="4">
         <v>1130</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="4">
         <f t="shared" si="7"/>
         <v>918</v>
       </c>
@@ -18157,13 +18157,13 @@
       <c r="E244" t="s">
         <v>45</v>
       </c>
-      <c r="F244" s="1">
+      <c r="F244" s="4">
         <v>470</v>
       </c>
-      <c r="G244" s="1">
+      <c r="G244" s="4">
         <v>950</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="4">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
@@ -18192,13 +18192,13 @@
       <c r="E245" t="s">
         <v>45</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245" s="4">
         <v>1050</v>
       </c>
-      <c r="G245" s="2">
+      <c r="G245" s="4">
         <v>1200</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="4">
         <f t="shared" si="7"/>
         <v>1125</v>
       </c>
@@ -18227,13 +18227,13 @@
       <c r="E246" t="s">
         <v>45</v>
       </c>
-      <c r="F246" s="1">
+      <c r="F246" s="4">
         <v>680</v>
       </c>
-      <c r="G246" s="2">
+      <c r="G246" s="4">
         <v>1045</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="4">
         <f t="shared" si="7"/>
         <v>863</v>
       </c>
@@ -18262,13 +18262,13 @@
       <c r="E247" t="s">
         <v>45</v>
       </c>
-      <c r="F247" s="1">
+      <c r="F247" s="4">
         <v>680</v>
       </c>
-      <c r="G247" s="2">
+      <c r="G247" s="4">
         <v>1045</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="4">
         <f t="shared" si="7"/>
         <v>863</v>
       </c>
@@ -18297,13 +18297,13 @@
       <c r="E248" t="s">
         <v>45</v>
       </c>
-      <c r="F248" s="1">
+      <c r="F248" s="4">
         <v>800</v>
       </c>
-      <c r="G248" s="2">
+      <c r="G248" s="4">
         <v>1200</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="4">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
@@ -18332,13 +18332,13 @@
       <c r="E249" t="s">
         <v>45</v>
       </c>
-      <c r="F249" s="1">
+      <c r="F249" s="4">
         <v>635</v>
       </c>
-      <c r="G249" s="1">
+      <c r="G249" s="4">
         <v>850</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="4">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
@@ -18367,13 +18367,13 @@
       <c r="E250" t="s">
         <v>45</v>
       </c>
-      <c r="F250" s="1">
+      <c r="F250" s="4">
         <v>730</v>
       </c>
-      <c r="G250" s="1">
+      <c r="G250" s="4">
         <v>905</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="4">
         <f t="shared" si="7"/>
         <v>818</v>
       </c>
@@ -18402,13 +18402,13 @@
       <c r="E251" t="s">
         <v>45</v>
       </c>
-      <c r="F251" s="1">
+      <c r="F251" s="4">
         <v>650</v>
       </c>
-      <c r="G251" s="1">
+      <c r="G251" s="4">
         <v>950</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="4">
         <f t="shared" si="7"/>
         <v>800</v>
       </c>
@@ -18437,13 +18437,13 @@
       <c r="E252" t="s">
         <v>45</v>
       </c>
-      <c r="F252" s="1">
+      <c r="F252" s="4">
         <v>680</v>
       </c>
-      <c r="G252" s="2">
+      <c r="G252" s="4">
         <v>1115</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="4">
         <f t="shared" si="7"/>
         <v>898</v>
       </c>
@@ -18472,13 +18472,13 @@
       <c r="E253" t="s">
         <v>45</v>
       </c>
-      <c r="F253" s="1">
+      <c r="F253" s="4">
         <v>835</v>
       </c>
-      <c r="G253" s="2">
+      <c r="G253" s="4">
         <v>1330</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="4">
         <f t="shared" si="7"/>
         <v>1083</v>
       </c>
@@ -18507,13 +18507,13 @@
       <c r="E254" t="s">
         <v>42</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254" s="4">
         <v>100000</v>
       </c>
-      <c r="G254" s="2">
+      <c r="G254" s="4">
         <v>120000</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="4">
         <f t="shared" ref="H254:H317" si="8">MROUND((F254+G254)/2,1000)</f>
         <v>110000</v>
       </c>
@@ -18542,13 +18542,13 @@
       <c r="E255" t="s">
         <v>42</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F255" s="4">
         <v>120000</v>
       </c>
-      <c r="G255" s="2">
+      <c r="G255" s="4">
         <v>140000</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="4">
         <f t="shared" si="8"/>
         <v>130000</v>
       </c>
@@ -18577,13 +18577,13 @@
       <c r="E256" t="s">
         <v>42</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" s="4">
         <v>90000</v>
       </c>
-      <c r="G256" s="2">
+      <c r="G256" s="4">
         <v>100000</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="4">
         <f t="shared" si="8"/>
         <v>95000</v>
       </c>
@@ -18612,13 +18612,13 @@
       <c r="E257" t="s">
         <v>42</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257" s="4">
         <v>105000</v>
       </c>
-      <c r="G257" s="2">
+      <c r="G257" s="4">
         <v>135000</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="4">
         <f t="shared" si="8"/>
         <v>120000</v>
       </c>
@@ -18647,13 +18647,13 @@
       <c r="E258" t="s">
         <v>42</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" s="4">
         <v>70000</v>
       </c>
-      <c r="G258" s="2">
+      <c r="G258" s="4">
         <v>90000</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="4">
         <f t="shared" si="8"/>
         <v>80000</v>
       </c>
@@ -18682,13 +18682,13 @@
       <c r="E259" t="s">
         <v>42</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259" s="4">
         <v>100000</v>
       </c>
-      <c r="G259" s="2">
+      <c r="G259" s="4">
         <v>130000</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="4">
         <f t="shared" si="8"/>
         <v>115000</v>
       </c>
@@ -18717,13 +18717,13 @@
       <c r="E260" t="s">
         <v>42</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260" s="4">
         <v>155000</v>
       </c>
-      <c r="G260" s="2">
+      <c r="G260" s="4">
         <v>200000</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="4">
         <f t="shared" si="8"/>
         <v>178000</v>
       </c>
@@ -18752,13 +18752,13 @@
       <c r="E261" t="s">
         <v>42</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261" s="4">
         <v>120000</v>
       </c>
-      <c r="G261" s="2">
+      <c r="G261" s="4">
         <v>150000</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="4">
         <f t="shared" si="8"/>
         <v>135000</v>
       </c>
@@ -18787,13 +18787,13 @@
       <c r="E262" t="s">
         <v>42</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262" s="4">
         <v>110000</v>
       </c>
-      <c r="G262" s="2">
+      <c r="G262" s="4">
         <v>140000</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="4">
         <f t="shared" si="8"/>
         <v>125000</v>
       </c>
@@ -18822,13 +18822,13 @@
       <c r="E263" t="s">
         <v>42</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263" s="4">
         <v>125000</v>
       </c>
-      <c r="G263" s="2">
+      <c r="G263" s="4">
         <v>150000</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="4">
         <f t="shared" si="8"/>
         <v>138000</v>
       </c>
@@ -18857,13 +18857,13 @@
       <c r="E264" t="s">
         <v>42</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264" s="4">
         <v>155000</v>
       </c>
-      <c r="G264" s="2">
+      <c r="G264" s="4">
         <v>200000</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="4">
         <f t="shared" si="8"/>
         <v>178000</v>
       </c>
@@ -18892,13 +18892,13 @@
       <c r="E265" t="s">
         <v>42</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265" s="4">
         <v>135000</v>
       </c>
-      <c r="G265" s="2">
+      <c r="G265" s="4">
         <v>165000</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="4">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
@@ -18927,13 +18927,13 @@
       <c r="E266" t="s">
         <v>42</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266" s="4">
         <v>90000</v>
       </c>
-      <c r="G266" s="2">
+      <c r="G266" s="4">
         <v>130000</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="4">
         <f t="shared" si="8"/>
         <v>110000</v>
       </c>
@@ -18962,13 +18962,13 @@
       <c r="E267" t="s">
         <v>42</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267" s="4">
         <v>155000</v>
       </c>
-      <c r="G267" s="2">
+      <c r="G267" s="4">
         <v>200000</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="4">
         <f t="shared" si="8"/>
         <v>178000</v>
       </c>
@@ -18997,13 +18997,13 @@
       <c r="E268" t="s">
         <v>42</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268" s="4">
         <v>130000</v>
       </c>
-      <c r="G268" s="2">
+      <c r="G268" s="4">
         <v>185000</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="4">
         <f t="shared" si="8"/>
         <v>158000</v>
       </c>
@@ -19032,13 +19032,13 @@
       <c r="E269" t="s">
         <v>42</v>
       </c>
-      <c r="F269" s="2">
+      <c r="F269" s="4">
         <v>130000</v>
       </c>
-      <c r="G269" s="2">
+      <c r="G269" s="4">
         <v>185000</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="4">
         <f t="shared" si="8"/>
         <v>158000</v>
       </c>
@@ -19067,13 +19067,13 @@
       <c r="E270" t="s">
         <v>42</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270" s="4">
         <v>130000</v>
       </c>
-      <c r="G270" s="2">
+      <c r="G270" s="4">
         <v>185000</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="4">
         <f t="shared" si="8"/>
         <v>158000</v>
       </c>
@@ -19102,13 +19102,13 @@
       <c r="E271" t="s">
         <v>42</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271" s="4">
         <v>120000</v>
       </c>
-      <c r="G271" s="2">
+      <c r="G271" s="4">
         <v>150000</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="4">
         <f t="shared" si="8"/>
         <v>135000</v>
       </c>
@@ -19137,13 +19137,13 @@
       <c r="E272" t="s">
         <v>42</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F272" s="4">
         <v>140000</v>
       </c>
-      <c r="G272" s="2">
+      <c r="G272" s="4">
         <v>160000</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="4">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
@@ -19172,13 +19172,13 @@
       <c r="E273" t="s">
         <v>42</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273" s="4">
         <v>125000</v>
       </c>
-      <c r="G273" s="2">
+      <c r="G273" s="4">
         <v>150000</v>
       </c>
-      <c r="H273">
+      <c r="H273" s="4">
         <f t="shared" si="8"/>
         <v>138000</v>
       </c>
@@ -19207,13 +19207,13 @@
       <c r="E274" t="s">
         <v>42</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274" s="4">
         <v>130000</v>
       </c>
-      <c r="G274" s="2">
+      <c r="G274" s="4">
         <v>180000</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="4">
         <f t="shared" si="8"/>
         <v>155000</v>
       </c>
@@ -19242,13 +19242,13 @@
       <c r="E275" t="s">
         <v>42</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275" s="4">
         <v>160000</v>
       </c>
-      <c r="G275" s="2">
+      <c r="G275" s="4">
         <v>200000</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="4">
         <f t="shared" si="8"/>
         <v>180000</v>
       </c>
@@ -19277,13 +19277,13 @@
       <c r="E276" t="s">
         <v>45</v>
       </c>
-      <c r="F276" s="1">
+      <c r="F276" s="4">
         <v>600</v>
       </c>
-      <c r="G276" s="1">
+      <c r="G276" s="4">
         <v>700</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="4">
         <f t="shared" ref="H276:H297" si="10">ROUND((F276+G276)/2,0)</f>
         <v>650</v>
       </c>
@@ -19312,13 +19312,13 @@
       <c r="E277" t="s">
         <v>45</v>
       </c>
-      <c r="F277" s="1">
+      <c r="F277" s="4">
         <v>700</v>
       </c>
-      <c r="G277" s="1">
+      <c r="G277" s="4">
         <v>900</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="4">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -19347,13 +19347,13 @@
       <c r="E278" t="s">
         <v>45</v>
       </c>
-      <c r="F278" s="1">
+      <c r="F278" s="4">
         <v>600</v>
       </c>
-      <c r="G278" s="1">
+      <c r="G278" s="4">
         <v>750</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="4">
         <f t="shared" si="10"/>
         <v>675</v>
       </c>
@@ -19382,13 +19382,13 @@
       <c r="E279" t="s">
         <v>45</v>
       </c>
-      <c r="F279" s="1">
+      <c r="F279" s="4">
         <v>700</v>
       </c>
-      <c r="G279" s="1">
+      <c r="G279" s="4">
         <v>900</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="4">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -19417,13 +19417,13 @@
       <c r="E280" t="s">
         <v>45</v>
       </c>
-      <c r="F280" s="1">
+      <c r="F280" s="4">
         <v>600</v>
       </c>
-      <c r="G280" s="1">
+      <c r="G280" s="4">
         <v>750</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="4">
         <f t="shared" si="10"/>
         <v>675</v>
       </c>
@@ -19452,13 +19452,13 @@
       <c r="E281" t="s">
         <v>45</v>
       </c>
-      <c r="F281" s="1">
+      <c r="F281" s="4">
         <v>700</v>
       </c>
-      <c r="G281" s="2">
+      <c r="G281" s="4">
         <v>1000</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="4">
         <f t="shared" si="10"/>
         <v>850</v>
       </c>
@@ -19487,13 +19487,13 @@
       <c r="E282" t="s">
         <v>45</v>
       </c>
-      <c r="F282" s="1">
+      <c r="F282" s="4">
         <v>900</v>
       </c>
-      <c r="G282" s="2">
+      <c r="G282" s="4">
         <v>1130</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="4">
         <f t="shared" si="10"/>
         <v>1015</v>
       </c>
@@ -19522,13 +19522,13 @@
       <c r="E283" t="s">
         <v>45</v>
       </c>
-      <c r="F283" s="1">
+      <c r="F283" s="4">
         <v>700</v>
       </c>
-      <c r="G283" s="1">
+      <c r="G283" s="4">
         <v>900</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="4">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -19557,13 +19557,13 @@
       <c r="E284" t="s">
         <v>45</v>
       </c>
-      <c r="F284" s="1">
+      <c r="F284" s="4">
         <v>700</v>
       </c>
-      <c r="G284" s="1">
+      <c r="G284" s="4">
         <v>900</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="4">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -19592,13 +19592,13 @@
       <c r="E285" t="s">
         <v>45</v>
       </c>
-      <c r="F285" s="1">
+      <c r="F285" s="4">
         <v>650</v>
       </c>
-      <c r="G285" s="1">
+      <c r="G285" s="4">
         <v>950</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="4">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -19627,13 +19627,13 @@
       <c r="E286" t="s">
         <v>45</v>
       </c>
-      <c r="F286" s="1">
+      <c r="F286" s="4">
         <v>1000</v>
       </c>
-      <c r="G286" s="2">
+      <c r="G286" s="4">
         <v>1200</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="4">
         <f t="shared" si="10"/>
         <v>1100</v>
       </c>
@@ -19662,13 +19662,13 @@
       <c r="E287" t="s">
         <v>45</v>
       </c>
-      <c r="F287" s="1">
+      <c r="F287" s="4">
         <v>800</v>
       </c>
-      <c r="G287" s="2">
+      <c r="G287" s="4">
         <v>1000</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="4">
         <f t="shared" si="10"/>
         <v>900</v>
       </c>
@@ -19697,13 +19697,13 @@
       <c r="E288" t="s">
         <v>45</v>
       </c>
-      <c r="F288" s="1">
+      <c r="F288" s="4">
         <v>550</v>
       </c>
-      <c r="G288" s="1">
+      <c r="G288" s="4">
         <v>750</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="4">
         <f t="shared" si="10"/>
         <v>650</v>
       </c>
@@ -19732,13 +19732,13 @@
       <c r="E289" t="s">
         <v>45</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289" s="4">
         <v>1000</v>
       </c>
-      <c r="G289" s="2">
+      <c r="G289" s="4">
         <v>1150</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="4">
         <f t="shared" si="10"/>
         <v>1075</v>
       </c>
@@ -19767,13 +19767,13 @@
       <c r="E290" t="s">
         <v>45</v>
       </c>
-      <c r="F290" s="1">
+      <c r="F290" s="4">
         <v>700</v>
       </c>
-      <c r="G290" s="2">
+      <c r="G290" s="4">
         <v>1000</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="4">
         <f t="shared" si="10"/>
         <v>850</v>
       </c>
@@ -19802,13 +19802,13 @@
       <c r="E291" t="s">
         <v>45</v>
       </c>
-      <c r="F291" s="1">
+      <c r="F291" s="4">
         <v>750</v>
       </c>
-      <c r="G291" s="2">
+      <c r="G291" s="4">
         <v>1050</v>
       </c>
-      <c r="H291">
+      <c r="H291" s="4">
         <f t="shared" si="10"/>
         <v>900</v>
       </c>
@@ -19837,13 +19837,13 @@
       <c r="E292" t="s">
         <v>45</v>
       </c>
-      <c r="F292" s="1">
+      <c r="F292" s="4">
         <v>800</v>
       </c>
-      <c r="G292" s="2">
+      <c r="G292" s="4">
         <v>1100</v>
       </c>
-      <c r="H292">
+      <c r="H292" s="4">
         <f t="shared" si="10"/>
         <v>950</v>
       </c>
@@ -19872,13 +19872,13 @@
       <c r="E293" t="s">
         <v>45</v>
       </c>
-      <c r="F293" s="1">
+      <c r="F293" s="4">
         <v>750</v>
       </c>
-      <c r="G293" s="1">
+      <c r="G293" s="4">
         <v>950</v>
       </c>
-      <c r="H293">
+      <c r="H293" s="4">
         <f t="shared" si="10"/>
         <v>850</v>
       </c>
@@ -19907,13 +19907,13 @@
       <c r="E294" t="s">
         <v>45</v>
       </c>
-      <c r="F294" s="1">
+      <c r="F294" s="4">
         <v>730</v>
       </c>
-      <c r="G294" s="1">
+      <c r="G294" s="4">
         <v>905</v>
       </c>
-      <c r="H294">
+      <c r="H294" s="4">
         <f t="shared" si="10"/>
         <v>818</v>
       </c>
@@ -19942,13 +19942,13 @@
       <c r="E295" t="s">
         <v>45</v>
       </c>
-      <c r="F295" s="1">
+      <c r="F295" s="4">
         <v>650</v>
       </c>
-      <c r="G295" s="1">
+      <c r="G295" s="4">
         <v>850</v>
       </c>
-      <c r="H295">
+      <c r="H295" s="4">
         <f t="shared" si="10"/>
         <v>750</v>
       </c>
@@ -19977,13 +19977,13 @@
       <c r="E296" t="s">
         <v>45</v>
       </c>
-      <c r="F296" s="1">
+      <c r="F296" s="4">
         <v>900</v>
       </c>
-      <c r="G296" s="2">
+      <c r="G296" s="4">
         <v>1200</v>
       </c>
-      <c r="H296">
+      <c r="H296" s="4">
         <f t="shared" si="10"/>
         <v>1050</v>
       </c>
@@ -20012,13 +20012,13 @@
       <c r="E297" t="s">
         <v>45</v>
       </c>
-      <c r="F297" s="1">
+      <c r="F297" s="4">
         <v>835</v>
       </c>
-      <c r="G297" s="2">
+      <c r="G297" s="4">
         <v>1130</v>
       </c>
-      <c r="H297">
+      <c r="H297" s="4">
         <f t="shared" si="10"/>
         <v>983</v>
       </c>
@@ -20047,13 +20047,13 @@
       <c r="E298" t="s">
         <v>42</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298" s="4">
         <v>85000</v>
       </c>
-      <c r="G298" s="2">
+      <c r="G298" s="4">
         <v>110000</v>
       </c>
-      <c r="H298">
+      <c r="H298" s="4">
         <f t="shared" si="8"/>
         <v>98000</v>
       </c>
@@ -20082,13 +20082,13 @@
       <c r="E299" t="s">
         <v>42</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299" s="4">
         <v>110000</v>
       </c>
-      <c r="G299" s="2">
+      <c r="G299" s="4">
         <v>140000</v>
       </c>
-      <c r="H299">
+      <c r="H299" s="4">
         <f t="shared" si="8"/>
         <v>125000</v>
       </c>
@@ -20117,13 +20117,13 @@
       <c r="E300" t="s">
         <v>42</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300" s="4">
         <v>100000</v>
       </c>
-      <c r="G300" s="2">
+      <c r="G300" s="4">
         <v>130000</v>
       </c>
-      <c r="H300">
+      <c r="H300" s="4">
         <f t="shared" si="8"/>
         <v>115000</v>
       </c>
@@ -20152,13 +20152,13 @@
       <c r="E301" t="s">
         <v>42</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301" s="4">
         <v>95000</v>
       </c>
-      <c r="G301" s="2">
+      <c r="G301" s="4">
         <v>130000</v>
       </c>
-      <c r="H301">
+      <c r="H301" s="4">
         <f t="shared" si="8"/>
         <v>113000</v>
       </c>
@@ -20187,13 +20187,13 @@
       <c r="E302" t="s">
         <v>42</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302" s="4">
         <v>85000</v>
       </c>
-      <c r="G302" s="2">
+      <c r="G302" s="4">
         <v>125000</v>
       </c>
-      <c r="H302">
+      <c r="H302" s="4">
         <f t="shared" si="8"/>
         <v>105000</v>
       </c>
@@ -20222,13 +20222,13 @@
       <c r="E303" t="s">
         <v>42</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303" s="4">
         <v>150000</v>
       </c>
-      <c r="G303" s="2">
+      <c r="G303" s="4">
         <v>180000</v>
       </c>
-      <c r="H303">
+      <c r="H303" s="4">
         <f t="shared" si="8"/>
         <v>165000</v>
       </c>
@@ -20257,13 +20257,13 @@
       <c r="E304" t="s">
         <v>42</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304" s="4">
         <v>105000</v>
       </c>
-      <c r="G304" s="2">
+      <c r="G304" s="4">
         <v>135000</v>
       </c>
-      <c r="H304">
+      <c r="H304" s="4">
         <f t="shared" si="8"/>
         <v>120000</v>
       </c>
@@ -20292,13 +20292,13 @@
       <c r="E305" t="s">
         <v>42</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305" s="4">
         <v>130000</v>
       </c>
-      <c r="G305" s="2">
+      <c r="G305" s="4">
         <v>150000</v>
       </c>
-      <c r="H305">
+      <c r="H305" s="4">
         <f t="shared" si="8"/>
         <v>140000</v>
       </c>
@@ -20327,13 +20327,13 @@
       <c r="E306" t="s">
         <v>42</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306" s="4">
         <v>140000</v>
       </c>
-      <c r="G306" s="2">
+      <c r="G306" s="4">
         <v>170000</v>
       </c>
-      <c r="H306">
+      <c r="H306" s="4">
         <f t="shared" si="8"/>
         <v>155000</v>
       </c>
@@ -20362,13 +20362,13 @@
       <c r="E307" t="s">
         <v>42</v>
       </c>
-      <c r="F307" s="2">
+      <c r="F307" s="4">
         <v>155000</v>
       </c>
-      <c r="G307" s="2">
+      <c r="G307" s="4">
         <v>200000</v>
       </c>
-      <c r="H307">
+      <c r="H307" s="4">
         <f t="shared" si="8"/>
         <v>178000</v>
       </c>
@@ -20397,13 +20397,13 @@
       <c r="E308" t="s">
         <v>42</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308" s="4">
         <v>120000</v>
       </c>
-      <c r="G308" s="2">
+      <c r="G308" s="4">
         <v>150000</v>
       </c>
-      <c r="H308">
+      <c r="H308" s="4">
         <f t="shared" si="8"/>
         <v>135000</v>
       </c>
@@ -20432,13 +20432,13 @@
       <c r="E309" t="s">
         <v>42</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309" s="4">
         <v>120000</v>
       </c>
-      <c r="G309" s="2">
+      <c r="G309" s="4">
         <v>150000</v>
       </c>
-      <c r="H309">
+      <c r="H309" s="4">
         <f t="shared" si="8"/>
         <v>135000</v>
       </c>
@@ -20467,13 +20467,13 @@
       <c r="E310" t="s">
         <v>42</v>
       </c>
-      <c r="F310" s="2">
+      <c r="F310" s="4">
         <v>125000</v>
       </c>
-      <c r="G310" s="2">
+      <c r="G310" s="4">
         <v>150000</v>
       </c>
-      <c r="H310">
+      <c r="H310" s="4">
         <f t="shared" si="8"/>
         <v>138000</v>
       </c>
@@ -20502,13 +20502,13 @@
       <c r="E311" t="s">
         <v>42</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F311" s="4">
         <v>155000</v>
       </c>
-      <c r="G311" s="2">
+      <c r="G311" s="4">
         <v>200000</v>
       </c>
-      <c r="H311">
+      <c r="H311" s="4">
         <f t="shared" si="8"/>
         <v>178000</v>
       </c>
@@ -20537,13 +20537,13 @@
       <c r="E312" t="s">
         <v>42</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312" s="4">
         <v>135000</v>
       </c>
-      <c r="G312" s="2">
+      <c r="G312" s="4">
         <v>165000</v>
       </c>
-      <c r="H312">
+      <c r="H312" s="4">
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
@@ -20572,13 +20572,13 @@
       <c r="E313" t="s">
         <v>42</v>
       </c>
-      <c r="F313" s="2">
+      <c r="F313" s="4">
         <v>90000</v>
       </c>
-      <c r="G313" s="2">
+      <c r="G313" s="4">
         <v>130000</v>
       </c>
-      <c r="H313">
+      <c r="H313" s="4">
         <f t="shared" si="8"/>
         <v>110000</v>
       </c>
@@ -20607,13 +20607,13 @@
       <c r="E314" t="s">
         <v>42</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314" s="4">
         <v>155000</v>
       </c>
-      <c r="G314" s="2">
+      <c r="G314" s="4">
         <v>200000</v>
       </c>
-      <c r="H314">
+      <c r="H314" s="4">
         <f t="shared" si="8"/>
         <v>178000</v>
       </c>
@@ -20642,13 +20642,13 @@
       <c r="E315" t="s">
         <v>42</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315" s="4">
         <v>130000</v>
       </c>
-      <c r="G315" s="2">
+      <c r="G315" s="4">
         <v>185000</v>
       </c>
-      <c r="H315">
+      <c r="H315" s="4">
         <f t="shared" si="8"/>
         <v>158000</v>
       </c>
@@ -20677,13 +20677,13 @@
       <c r="E316" t="s">
         <v>42</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316" s="4">
         <v>130000</v>
       </c>
-      <c r="G316" s="2">
+      <c r="G316" s="4">
         <v>185000</v>
       </c>
-      <c r="H316">
+      <c r="H316" s="4">
         <f t="shared" si="8"/>
         <v>158000</v>
       </c>
@@ -20712,13 +20712,13 @@
       <c r="E317" t="s">
         <v>42</v>
       </c>
-      <c r="F317" s="2">
+      <c r="F317" s="4">
         <v>130000</v>
       </c>
-      <c r="G317" s="2">
+      <c r="G317" s="4">
         <v>185000</v>
       </c>
-      <c r="H317">
+      <c r="H317" s="4">
         <f t="shared" si="8"/>
         <v>158000</v>
       </c>
@@ -20747,13 +20747,13 @@
       <c r="E318" t="s">
         <v>42</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F318" s="4">
         <v>120000</v>
       </c>
-      <c r="G318" s="2">
+      <c r="G318" s="4">
         <v>150000</v>
       </c>
-      <c r="H318">
+      <c r="H318" s="4">
         <f t="shared" ref="H318:H322" si="11">MROUND((F318+G318)/2,1000)</f>
         <v>135000</v>
       </c>
@@ -20782,13 +20782,13 @@
       <c r="E319" t="s">
         <v>42</v>
       </c>
-      <c r="F319" s="2">
+      <c r="F319" s="4">
         <v>140000</v>
       </c>
-      <c r="G319" s="2">
+      <c r="G319" s="4">
         <v>160000</v>
       </c>
-      <c r="H319">
+      <c r="H319" s="4">
         <f t="shared" si="11"/>
         <v>150000</v>
       </c>
@@ -20817,13 +20817,13 @@
       <c r="E320" t="s">
         <v>42</v>
       </c>
-      <c r="F320" s="2">
+      <c r="F320" s="4">
         <v>125000</v>
       </c>
-      <c r="G320" s="2">
+      <c r="G320" s="4">
         <v>150000</v>
       </c>
-      <c r="H320">
+      <c r="H320" s="4">
         <f t="shared" si="11"/>
         <v>138000</v>
       </c>
@@ -20852,13 +20852,13 @@
       <c r="E321" t="s">
         <v>42</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321" s="4">
         <v>130000</v>
       </c>
-      <c r="G321" s="2">
+      <c r="G321" s="4">
         <v>180000</v>
       </c>
-      <c r="H321">
+      <c r="H321" s="4">
         <f t="shared" si="11"/>
         <v>155000</v>
       </c>
@@ -20887,13 +20887,13 @@
       <c r="E322" t="s">
         <v>42</v>
       </c>
-      <c r="F322" s="2">
+      <c r="F322" s="4">
         <v>160000</v>
       </c>
-      <c r="G322" s="2">
+      <c r="G322" s="4">
         <v>200000</v>
       </c>
-      <c r="H322">
+      <c r="H322" s="4">
         <f t="shared" si="11"/>
         <v>180000</v>
       </c>
@@ -20922,13 +20922,13 @@
       <c r="E323" t="s">
         <v>45</v>
       </c>
-      <c r="F323" s="1">
+      <c r="F323" s="4">
         <v>520</v>
       </c>
-      <c r="G323" s="1">
+      <c r="G323" s="4">
         <v>680</v>
       </c>
-      <c r="H323">
+      <c r="H323" s="4">
         <f t="shared" ref="H323:H347" si="13">ROUND((F323+G323)/2,0)</f>
         <v>600</v>
       </c>
@@ -20957,13 +20957,13 @@
       <c r="E324" t="s">
         <v>45</v>
       </c>
-      <c r="F324" s="1">
+      <c r="F324" s="4">
         <v>680</v>
       </c>
-      <c r="G324" s="1">
+      <c r="G324" s="4">
         <v>750</v>
       </c>
-      <c r="H324">
+      <c r="H324" s="4">
         <f t="shared" si="13"/>
         <v>715</v>
       </c>
@@ -20992,13 +20992,13 @@
       <c r="E325" t="s">
         <v>45</v>
       </c>
-      <c r="F325" s="1">
+      <c r="F325" s="4">
         <v>520</v>
       </c>
-      <c r="G325" s="1">
+      <c r="G325" s="4">
         <v>680</v>
       </c>
-      <c r="H325">
+      <c r="H325" s="4">
         <f t="shared" si="13"/>
         <v>600</v>
       </c>
@@ -21027,13 +21027,13 @@
       <c r="E326" t="s">
         <v>45</v>
       </c>
-      <c r="F326" s="1">
+      <c r="F326" s="4">
         <v>850</v>
       </c>
-      <c r="G326" s="2">
+      <c r="G326" s="4">
         <v>1050</v>
       </c>
-      <c r="H326">
+      <c r="H326" s="4">
         <f t="shared" si="13"/>
         <v>950</v>
       </c>
@@ -21062,13 +21062,13 @@
       <c r="E327" t="s">
         <v>45</v>
       </c>
-      <c r="F327" s="1">
+      <c r="F327" s="4">
         <v>445</v>
       </c>
-      <c r="G327" s="1">
+      <c r="G327" s="4">
         <v>650</v>
       </c>
-      <c r="H327">
+      <c r="H327" s="4">
         <f t="shared" si="13"/>
         <v>548</v>
       </c>
@@ -21097,13 +21097,13 @@
       <c r="E328" t="s">
         <v>45</v>
       </c>
-      <c r="F328" s="1">
+      <c r="F328" s="4">
         <v>780</v>
       </c>
-      <c r="G328" s="1">
+      <c r="G328" s="4">
         <v>950</v>
       </c>
-      <c r="H328">
+      <c r="H328" s="4">
         <f t="shared" si="13"/>
         <v>865</v>
       </c>
@@ -21132,13 +21132,13 @@
       <c r="E329" t="s">
         <v>45</v>
       </c>
-      <c r="F329" s="1">
+      <c r="F329" s="4">
         <v>550</v>
       </c>
-      <c r="G329" s="1">
+      <c r="G329" s="4">
         <v>700</v>
       </c>
-      <c r="H329">
+      <c r="H329" s="4">
         <f t="shared" si="13"/>
         <v>625</v>
       </c>
@@ -21167,13 +21167,13 @@
       <c r="E330" t="s">
         <v>45</v>
       </c>
-      <c r="F330" s="1">
+      <c r="F330" s="4">
         <v>800</v>
       </c>
-      <c r="G330" s="1">
+      <c r="G330" s="4">
         <v>900</v>
       </c>
-      <c r="H330">
+      <c r="H330" s="4">
         <f t="shared" si="13"/>
         <v>850</v>
       </c>
@@ -21202,13 +21202,13 @@
       <c r="E331" t="s">
         <v>45</v>
       </c>
-      <c r="F331" s="1">
+      <c r="F331" s="4">
         <v>900</v>
       </c>
-      <c r="G331" s="2">
+      <c r="G331" s="4">
         <v>1000</v>
       </c>
-      <c r="H331">
+      <c r="H331" s="4">
         <f t="shared" si="13"/>
         <v>950</v>
       </c>
@@ -21237,13 +21237,13 @@
       <c r="E332" t="s">
         <v>45</v>
       </c>
-      <c r="F332" s="1">
+      <c r="F332" s="4">
         <v>805</v>
       </c>
-      <c r="G332" s="2">
+      <c r="G332" s="4">
         <v>1130</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="4">
         <f t="shared" si="13"/>
         <v>968</v>
       </c>
@@ -21272,13 +21272,13 @@
       <c r="E333" t="s">
         <v>45</v>
       </c>
-      <c r="F333" s="1">
+      <c r="F333" s="4">
         <v>750</v>
       </c>
-      <c r="G333" s="1">
+      <c r="G333" s="4">
         <v>900</v>
       </c>
-      <c r="H333">
+      <c r="H333" s="4">
         <f t="shared" si="13"/>
         <v>825</v>
       </c>
@@ -21307,13 +21307,13 @@
       <c r="E334" t="s">
         <v>45</v>
       </c>
-      <c r="F334" s="1">
+      <c r="F334" s="4">
         <v>750</v>
       </c>
-      <c r="G334" s="1">
+      <c r="G334" s="4">
         <v>900</v>
       </c>
-      <c r="H334">
+      <c r="H334" s="4">
         <f t="shared" si="13"/>
         <v>825</v>
       </c>
@@ -21342,13 +21342,13 @@
       <c r="E335" t="s">
         <v>45</v>
       </c>
-      <c r="F335" s="1">
+      <c r="F335" s="4">
         <v>680</v>
       </c>
-      <c r="G335" s="1">
+      <c r="G335" s="4">
         <v>850</v>
       </c>
-      <c r="H335">
+      <c r="H335" s="4">
         <f t="shared" si="13"/>
         <v>765</v>
       </c>
@@ -21377,13 +21377,13 @@
       <c r="E336" t="s">
         <v>45</v>
       </c>
-      <c r="F336" s="1">
+      <c r="F336" s="4">
         <v>805</v>
       </c>
-      <c r="G336" s="2">
+      <c r="G336" s="4">
         <v>1130</v>
       </c>
-      <c r="H336">
+      <c r="H336" s="4">
         <f t="shared" si="13"/>
         <v>968</v>
       </c>
@@ -21412,13 +21412,13 @@
       <c r="E337" t="s">
         <v>45</v>
       </c>
-      <c r="F337" s="1">
+      <c r="F337" s="4">
         <v>800</v>
       </c>
-      <c r="G337" s="2">
+      <c r="G337" s="4">
         <v>1000</v>
       </c>
-      <c r="H337">
+      <c r="H337" s="4">
         <f t="shared" si="13"/>
         <v>900</v>
       </c>
@@ -21447,13 +21447,13 @@
       <c r="E338" t="s">
         <v>45</v>
       </c>
-      <c r="F338" s="1">
+      <c r="F338" s="4">
         <v>650</v>
       </c>
-      <c r="G338" s="1">
+      <c r="G338" s="4">
         <v>800</v>
       </c>
-      <c r="H338">
+      <c r="H338" s="4">
         <f t="shared" si="13"/>
         <v>725</v>
       </c>
@@ -21482,13 +21482,13 @@
       <c r="E339" t="s">
         <v>45</v>
       </c>
-      <c r="F339" s="1">
+      <c r="F339" s="4">
         <v>905</v>
       </c>
-      <c r="G339" s="2">
+      <c r="G339" s="4">
         <v>1130</v>
       </c>
-      <c r="H339">
+      <c r="H339" s="4">
         <f t="shared" si="13"/>
         <v>1018</v>
       </c>
@@ -21517,13 +21517,13 @@
       <c r="E340" t="s">
         <v>45</v>
       </c>
-      <c r="F340" s="1">
+      <c r="F340" s="4">
         <v>720</v>
       </c>
-      <c r="G340" s="2">
+      <c r="G340" s="4">
         <v>1000</v>
       </c>
-      <c r="H340">
+      <c r="H340" s="4">
         <f t="shared" si="13"/>
         <v>860</v>
       </c>
@@ -21552,13 +21552,13 @@
       <c r="E341" t="s">
         <v>45</v>
       </c>
-      <c r="F341" s="1">
+      <c r="F341" s="4">
         <v>720</v>
       </c>
-      <c r="G341" s="2">
+      <c r="G341" s="4">
         <v>1000</v>
       </c>
-      <c r="H341">
+      <c r="H341" s="4">
         <f t="shared" si="13"/>
         <v>860</v>
       </c>
@@ -21587,13 +21587,13 @@
       <c r="E342" t="s">
         <v>45</v>
       </c>
-      <c r="F342" s="1">
+      <c r="F342" s="4">
         <v>720</v>
       </c>
-      <c r="G342" s="2">
+      <c r="G342" s="4">
         <v>1000</v>
       </c>
-      <c r="H342">
+      <c r="H342" s="4">
         <f t="shared" si="13"/>
         <v>860</v>
       </c>
@@ -21622,13 +21622,13 @@
       <c r="E343" t="s">
         <v>45</v>
       </c>
-      <c r="F343" s="1">
+      <c r="F343" s="4">
         <v>750</v>
       </c>
-      <c r="G343" s="1">
+      <c r="G343" s="4">
         <v>850</v>
       </c>
-      <c r="H343">
+      <c r="H343" s="4">
         <f t="shared" si="13"/>
         <v>800</v>
       </c>
@@ -21657,13 +21657,13 @@
       <c r="E344" t="s">
         <v>45</v>
       </c>
-      <c r="F344" s="1">
+      <c r="F344" s="4">
         <v>800</v>
       </c>
-      <c r="G344" s="2">
+      <c r="G344" s="4">
         <v>1000</v>
       </c>
-      <c r="H344">
+      <c r="H344" s="4">
         <f t="shared" si="13"/>
         <v>900</v>
       </c>
@@ -21692,13 +21692,13 @@
       <c r="E345" t="s">
         <v>45</v>
       </c>
-      <c r="F345" s="1">
+      <c r="F345" s="4">
         <v>750</v>
       </c>
-      <c r="G345" s="1">
+      <c r="G345" s="4">
         <v>950</v>
       </c>
-      <c r="H345">
+      <c r="H345" s="4">
         <f t="shared" si="13"/>
         <v>850</v>
       </c>
@@ -21727,13 +21727,13 @@
       <c r="E346" t="s">
         <v>45</v>
       </c>
-      <c r="F346" s="1">
+      <c r="F346" s="4">
         <v>800</v>
       </c>
-      <c r="G346" s="2">
+      <c r="G346" s="4">
         <v>1000</v>
       </c>
-      <c r="H346">
+      <c r="H346" s="4">
         <f t="shared" si="13"/>
         <v>900</v>
       </c>
@@ -21762,13 +21762,13 @@
       <c r="E347" t="s">
         <v>45</v>
       </c>
-      <c r="F347" s="1">
+      <c r="F347" s="4">
         <v>835</v>
       </c>
-      <c r="G347" s="2">
+      <c r="G347" s="4">
         <v>1130</v>
       </c>
-      <c r="H347">
+      <c r="H347" s="4">
         <f t="shared" si="13"/>
         <v>983</v>
       </c>
@@ -21797,13 +21797,13 @@
       <c r="E348" t="s">
         <v>42</v>
       </c>
-      <c r="F348" s="2">
+      <c r="F348" s="4">
         <v>75000</v>
       </c>
-      <c r="G348" s="2">
+      <c r="G348" s="4">
         <v>100000</v>
       </c>
-      <c r="H348">
+      <c r="H348" s="4">
         <f t="shared" ref="H348:H370" si="14">MROUND((F348+G348)/2,1000)</f>
         <v>88000</v>
       </c>
@@ -21832,13 +21832,13 @@
       <c r="E349" t="s">
         <v>42</v>
       </c>
-      <c r="F349" s="2">
+      <c r="F349" s="4">
         <v>100000</v>
       </c>
-      <c r="G349" s="2">
+      <c r="G349" s="4">
         <v>130000</v>
       </c>
-      <c r="H349">
+      <c r="H349" s="4">
         <f t="shared" si="14"/>
         <v>115000</v>
       </c>
@@ -21867,13 +21867,13 @@
       <c r="E350" t="s">
         <v>42</v>
       </c>
-      <c r="F350" s="2">
+      <c r="F350" s="4">
         <v>130000</v>
       </c>
-      <c r="G350" s="2">
+      <c r="G350" s="4">
         <v>170000</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="4">
         <f t="shared" si="14"/>
         <v>150000</v>
       </c>
@@ -21902,13 +21902,13 @@
       <c r="E351" t="s">
         <v>42</v>
       </c>
-      <c r="F351" s="2">
+      <c r="F351" s="4">
         <v>110000</v>
       </c>
-      <c r="G351" s="2">
+      <c r="G351" s="4">
         <v>140000</v>
       </c>
-      <c r="H351">
+      <c r="H351" s="4">
         <f t="shared" si="14"/>
         <v>125000</v>
       </c>
@@ -21937,13 +21937,13 @@
       <c r="E352" t="s">
         <v>42</v>
       </c>
-      <c r="F352" s="2">
+      <c r="F352" s="4">
         <v>85000</v>
       </c>
-      <c r="G352" s="2">
+      <c r="G352" s="4">
         <v>110000</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="4">
         <f t="shared" si="14"/>
         <v>98000</v>
       </c>
@@ -21972,13 +21972,13 @@
       <c r="E353" t="s">
         <v>42</v>
       </c>
-      <c r="F353" s="2">
+      <c r="F353" s="4">
         <v>110000</v>
       </c>
-      <c r="G353" s="2">
+      <c r="G353" s="4">
         <v>140000</v>
       </c>
-      <c r="H353">
+      <c r="H353" s="4">
         <f t="shared" si="14"/>
         <v>125000</v>
       </c>
@@ -22007,13 +22007,13 @@
       <c r="E354" t="s">
         <v>42</v>
       </c>
-      <c r="F354" s="2">
+      <c r="F354" s="4">
         <v>90000</v>
       </c>
-      <c r="G354" s="2">
+      <c r="G354" s="4">
         <v>120000</v>
       </c>
-      <c r="H354">
+      <c r="H354" s="4">
         <f t="shared" si="14"/>
         <v>105000</v>
       </c>
@@ -22042,13 +22042,13 @@
       <c r="E355" t="s">
         <v>42</v>
       </c>
-      <c r="F355" s="2">
+      <c r="F355" s="4">
         <v>145000</v>
       </c>
-      <c r="G355" s="2">
+      <c r="G355" s="4">
         <v>190000</v>
       </c>
-      <c r="H355">
+      <c r="H355" s="4">
         <f t="shared" si="14"/>
         <v>168000</v>
       </c>
@@ -22077,13 +22077,13 @@
       <c r="E356" t="s">
         <v>42</v>
       </c>
-      <c r="F356" s="2">
+      <c r="F356" s="4">
         <v>115000</v>
       </c>
-      <c r="G356" s="2">
+      <c r="G356" s="4">
         <v>150000</v>
       </c>
-      <c r="H356">
+      <c r="H356" s="4">
         <f t="shared" si="14"/>
         <v>133000</v>
       </c>
@@ -22112,13 +22112,13 @@
       <c r="E357" t="s">
         <v>42</v>
       </c>
-      <c r="F357" s="2">
+      <c r="F357" s="4">
         <v>110000</v>
       </c>
-      <c r="G357" s="2">
+      <c r="G357" s="4">
         <v>150000</v>
       </c>
-      <c r="H357">
+      <c r="H357" s="4">
         <f t="shared" si="14"/>
         <v>130000</v>
       </c>
@@ -22147,13 +22147,13 @@
       <c r="E358" t="s">
         <v>42</v>
       </c>
-      <c r="F358" s="2">
+      <c r="F358" s="4">
         <v>115000</v>
       </c>
-      <c r="G358" s="2">
+      <c r="G358" s="4">
         <v>140000</v>
       </c>
-      <c r="H358">
+      <c r="H358" s="4">
         <f t="shared" si="14"/>
         <v>128000</v>
       </c>
@@ -22182,13 +22182,13 @@
       <c r="E359" t="s">
         <v>42</v>
       </c>
-      <c r="F359" s="2">
+      <c r="F359" s="4">
         <v>145000</v>
       </c>
-      <c r="G359" s="2">
+      <c r="G359" s="4">
         <v>200000</v>
       </c>
-      <c r="H359">
+      <c r="H359" s="4">
         <f t="shared" si="14"/>
         <v>173000</v>
       </c>
@@ -22217,13 +22217,13 @@
       <c r="E360" t="s">
         <v>42</v>
       </c>
-      <c r="F360" s="2">
+      <c r="F360" s="4">
         <v>125000</v>
       </c>
-      <c r="G360" s="2">
+      <c r="G360" s="4">
         <v>155000</v>
       </c>
-      <c r="H360">
+      <c r="H360" s="4">
         <f t="shared" si="14"/>
         <v>140000</v>
       </c>
@@ -22252,13 +22252,13 @@
       <c r="E361" t="s">
         <v>42</v>
       </c>
-      <c r="F361" s="2">
+      <c r="F361" s="4">
         <v>85000</v>
       </c>
-      <c r="G361" s="2">
+      <c r="G361" s="4">
         <v>130000</v>
       </c>
-      <c r="H361">
+      <c r="H361" s="4">
         <f t="shared" si="14"/>
         <v>108000</v>
       </c>
@@ -22287,13 +22287,13 @@
       <c r="E362" t="s">
         <v>42</v>
       </c>
-      <c r="F362" s="2">
+      <c r="F362" s="4">
         <v>145000</v>
       </c>
-      <c r="G362" s="2">
+      <c r="G362" s="4">
         <v>190000</v>
       </c>
-      <c r="H362">
+      <c r="H362" s="4">
         <f t="shared" si="14"/>
         <v>168000</v>
       </c>
@@ -22322,13 +22322,13 @@
       <c r="E363" t="s">
         <v>42</v>
       </c>
-      <c r="F363" s="2">
+      <c r="F363" s="4">
         <v>125000</v>
       </c>
-      <c r="G363" s="2">
+      <c r="G363" s="4">
         <v>175000</v>
       </c>
-      <c r="H363">
+      <c r="H363" s="4">
         <f t="shared" si="14"/>
         <v>150000</v>
       </c>
@@ -22357,13 +22357,13 @@
       <c r="E364" t="s">
         <v>42</v>
       </c>
-      <c r="F364" s="2">
+      <c r="F364" s="4">
         <v>125000</v>
       </c>
-      <c r="G364" s="2">
+      <c r="G364" s="4">
         <v>175000</v>
       </c>
-      <c r="H364">
+      <c r="H364" s="4">
         <f t="shared" si="14"/>
         <v>150000</v>
       </c>
@@ -22392,13 +22392,13 @@
       <c r="E365" t="s">
         <v>42</v>
       </c>
-      <c r="F365" s="2">
+      <c r="F365" s="4">
         <v>150000</v>
       </c>
-      <c r="G365" s="2">
+      <c r="G365" s="4">
         <v>140000</v>
       </c>
-      <c r="H365">
+      <c r="H365" s="4">
         <f t="shared" si="14"/>
         <v>145000</v>
       </c>
@@ -22427,13 +22427,13 @@
       <c r="E366" t="s">
         <v>42</v>
       </c>
-      <c r="F366" s="2">
+      <c r="F366" s="4">
         <v>115000</v>
       </c>
-      <c r="G366" s="2">
+      <c r="G366" s="4">
         <v>180000</v>
       </c>
-      <c r="H366">
+      <c r="H366" s="4">
         <f t="shared" si="14"/>
         <v>148000</v>
       </c>
@@ -22462,13 +22462,13 @@
       <c r="E367" t="s">
         <v>42</v>
       </c>
-      <c r="F367" s="2">
+      <c r="F367" s="4">
         <v>120000</v>
       </c>
-      <c r="G367" s="2">
+      <c r="G367" s="4">
         <v>150000</v>
       </c>
-      <c r="H367">
+      <c r="H367" s="4">
         <f t="shared" si="14"/>
         <v>135000</v>
       </c>
@@ -22497,13 +22497,13 @@
       <c r="E368" t="s">
         <v>42</v>
       </c>
-      <c r="F368" s="2">
+      <c r="F368" s="4">
         <v>115000</v>
       </c>
-      <c r="G368" s="2">
+      <c r="G368" s="4">
         <v>140000</v>
       </c>
-      <c r="H368">
+      <c r="H368" s="4">
         <f t="shared" si="14"/>
         <v>128000</v>
       </c>
@@ -22532,13 +22532,13 @@
       <c r="E369" t="s">
         <v>42</v>
       </c>
-      <c r="F369" s="2">
+      <c r="F369" s="4">
         <v>120000</v>
       </c>
-      <c r="G369" s="2">
+      <c r="G369" s="4">
         <v>170000</v>
       </c>
-      <c r="H369">
+      <c r="H369" s="4">
         <f t="shared" si="14"/>
         <v>145000</v>
       </c>
@@ -22567,13 +22567,13 @@
       <c r="E370" t="s">
         <v>42</v>
       </c>
-      <c r="F370" s="2">
+      <c r="F370" s="4">
         <v>150000</v>
       </c>
-      <c r="G370" s="2">
+      <c r="G370" s="4">
         <v>200000</v>
       </c>
-      <c r="H370">
+      <c r="H370" s="4">
         <f t="shared" si="14"/>
         <v>175000</v>
       </c>
@@ -22602,13 +22602,13 @@
       <c r="E371" t="s">
         <v>45</v>
       </c>
-      <c r="F371" s="1">
+      <c r="F371" s="4">
         <v>400</v>
       </c>
-      <c r="G371" s="1">
+      <c r="G371" s="4">
         <v>600</v>
       </c>
-      <c r="H371">
+      <c r="H371" s="4">
         <f t="shared" ref="H371:H393" si="15">ROUND((F371+G371)/2,0)</f>
         <v>500</v>
       </c>
@@ -22637,13 +22637,13 @@
       <c r="E372" t="s">
         <v>45</v>
       </c>
-      <c r="F372" s="1">
+      <c r="F372" s="4">
         <v>600</v>
       </c>
-      <c r="G372" s="1">
+      <c r="G372" s="4">
         <v>900</v>
       </c>
-      <c r="H372">
+      <c r="H372" s="4">
         <f t="shared" si="15"/>
         <v>750</v>
       </c>
@@ -22672,13 +22672,13 @@
       <c r="E373" t="s">
         <v>45</v>
       </c>
-      <c r="F373" s="1">
+      <c r="F373" s="4">
         <v>700</v>
       </c>
-      <c r="G373" s="1">
+      <c r="G373" s="4">
         <v>900</v>
       </c>
-      <c r="H373">
+      <c r="H373" s="4">
         <f t="shared" si="15"/>
         <v>800</v>
       </c>
@@ -22707,13 +22707,13 @@
       <c r="E374" t="s">
         <v>45</v>
       </c>
-      <c r="F374" s="1">
+      <c r="F374" s="4">
         <v>600</v>
       </c>
-      <c r="G374" s="1">
+      <c r="G374" s="4">
         <v>750</v>
       </c>
-      <c r="H374">
+      <c r="H374" s="4">
         <f t="shared" si="15"/>
         <v>675</v>
       </c>
@@ -22742,13 +22742,13 @@
       <c r="E375" t="s">
         <v>45</v>
       </c>
-      <c r="F375" s="1">
+      <c r="F375" s="4">
         <v>500</v>
       </c>
-      <c r="G375" s="1">
+      <c r="G375" s="4">
         <v>650</v>
       </c>
-      <c r="H375">
+      <c r="H375" s="4">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
@@ -22777,13 +22777,13 @@
       <c r="E376" t="s">
         <v>45</v>
       </c>
-      <c r="F376" s="1">
+      <c r="F376" s="4">
         <v>600</v>
       </c>
-      <c r="G376" s="1">
+      <c r="G376" s="4">
         <v>750</v>
       </c>
-      <c r="H376">
+      <c r="H376" s="4">
         <f t="shared" si="15"/>
         <v>675</v>
       </c>
@@ -22812,13 +22812,13 @@
       <c r="E377" t="s">
         <v>45</v>
       </c>
-      <c r="F377" s="1">
+      <c r="F377" s="4">
         <v>500</v>
       </c>
-      <c r="G377" s="1">
+      <c r="G377" s="4">
         <v>750</v>
       </c>
-      <c r="H377">
+      <c r="H377" s="4">
         <f t="shared" si="15"/>
         <v>625</v>
       </c>
@@ -22847,13 +22847,13 @@
       <c r="E378" t="s">
         <v>45</v>
       </c>
-      <c r="F378" s="1">
+      <c r="F378" s="4">
         <v>765</v>
       </c>
-      <c r="G378" s="2">
+      <c r="G378" s="4">
         <v>1100</v>
       </c>
-      <c r="H378">
+      <c r="H378" s="4">
         <f t="shared" si="15"/>
         <v>933</v>
       </c>
@@ -22882,13 +22882,13 @@
       <c r="E379" t="s">
         <v>45</v>
       </c>
-      <c r="F379" s="1">
+      <c r="F379" s="4">
         <v>605</v>
       </c>
-      <c r="G379" s="1">
+      <c r="G379" s="4">
         <v>805</v>
       </c>
-      <c r="H379">
+      <c r="H379" s="4">
         <f t="shared" si="15"/>
         <v>705</v>
       </c>
@@ -22917,13 +22917,13 @@
       <c r="E380" t="s">
         <v>45</v>
       </c>
-      <c r="F380" s="1">
+      <c r="F380" s="4">
         <v>600</v>
       </c>
-      <c r="G380" s="1">
+      <c r="G380" s="4">
         <v>800</v>
       </c>
-      <c r="H380">
+      <c r="H380" s="4">
         <f t="shared" si="15"/>
         <v>700</v>
       </c>
@@ -22952,13 +22952,13 @@
       <c r="E381" t="s">
         <v>45</v>
       </c>
-      <c r="F381" s="1">
+      <c r="F381" s="4">
         <v>600</v>
       </c>
-      <c r="G381" s="1">
+      <c r="G381" s="4">
         <v>800</v>
       </c>
-      <c r="H381">
+      <c r="H381" s="4">
         <f t="shared" si="15"/>
         <v>700</v>
       </c>
@@ -22987,13 +22987,13 @@
       <c r="E382" t="s">
         <v>45</v>
       </c>
-      <c r="F382" s="1">
+      <c r="F382" s="4">
         <v>750</v>
       </c>
-      <c r="G382" s="2">
+      <c r="G382" s="4">
         <v>1100</v>
       </c>
-      <c r="H382">
+      <c r="H382" s="4">
         <f t="shared" si="15"/>
         <v>925</v>
       </c>
@@ -23022,13 +23022,13 @@
       <c r="E383" t="s">
         <v>45</v>
       </c>
-      <c r="F383" s="1">
+      <c r="F383" s="4">
         <v>670</v>
       </c>
-      <c r="G383" s="1">
+      <c r="G383" s="4">
         <v>900</v>
       </c>
-      <c r="H383">
+      <c r="H383" s="4">
         <f t="shared" si="15"/>
         <v>785</v>
       </c>
@@ -23057,13 +23057,13 @@
       <c r="E384" t="s">
         <v>45</v>
       </c>
-      <c r="F384" s="1">
+      <c r="F384" s="4">
         <v>450</v>
       </c>
-      <c r="G384" s="1">
+      <c r="G384" s="4">
         <v>700</v>
       </c>
-      <c r="H384">
+      <c r="H384" s="4">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
@@ -23092,13 +23092,13 @@
       <c r="E385" t="s">
         <v>45</v>
       </c>
-      <c r="F385" s="1">
+      <c r="F385" s="4">
         <v>750</v>
       </c>
-      <c r="G385" s="2">
+      <c r="G385" s="4">
         <v>1000</v>
       </c>
-      <c r="H385">
+      <c r="H385" s="4">
         <f t="shared" si="15"/>
         <v>875</v>
       </c>
@@ -23127,13 +23127,13 @@
       <c r="E386" t="s">
         <v>45</v>
       </c>
-      <c r="F386" s="1">
+      <c r="F386" s="4">
         <v>650</v>
       </c>
-      <c r="G386" s="1">
+      <c r="G386" s="4">
         <v>900</v>
       </c>
-      <c r="H386">
+      <c r="H386" s="4">
         <f t="shared" si="15"/>
         <v>775</v>
       </c>
@@ -23162,13 +23162,13 @@
       <c r="E387" t="s">
         <v>45</v>
       </c>
-      <c r="F387" s="1">
+      <c r="F387" s="4">
         <v>650</v>
       </c>
-      <c r="G387" s="1">
+      <c r="G387" s="4">
         <v>900</v>
       </c>
-      <c r="H387">
+      <c r="H387" s="4">
         <f t="shared" si="15"/>
         <v>775</v>
       </c>
@@ -23197,13 +23197,13 @@
       <c r="E388" t="s">
         <v>45</v>
       </c>
-      <c r="F388" s="1">
+      <c r="F388" s="4">
         <v>650</v>
       </c>
-      <c r="G388" s="2">
+      <c r="G388" s="4">
         <v>1000</v>
       </c>
-      <c r="H388">
+      <c r="H388" s="4">
         <f t="shared" si="15"/>
         <v>825</v>
       </c>
@@ -23232,13 +23232,13 @@
       <c r="E389" t="s">
         <v>45</v>
       </c>
-      <c r="F389" s="1">
+      <c r="F389" s="4">
         <v>600</v>
       </c>
-      <c r="G389" s="1">
+      <c r="G389" s="4">
         <v>800</v>
       </c>
-      <c r="H389">
+      <c r="H389" s="4">
         <f t="shared" si="15"/>
         <v>700</v>
       </c>
@@ -23267,13 +23267,13 @@
       <c r="E390" t="s">
         <v>45</v>
       </c>
-      <c r="F390" s="1">
+      <c r="F390" s="4">
         <v>700</v>
       </c>
-      <c r="G390" s="1">
+      <c r="G390" s="4">
         <v>900</v>
       </c>
-      <c r="H390">
+      <c r="H390" s="4">
         <f t="shared" si="15"/>
         <v>800</v>
       </c>
@@ -23302,13 +23302,13 @@
       <c r="E391" t="s">
         <v>45</v>
       </c>
-      <c r="F391" s="1">
+      <c r="F391" s="4">
         <v>650</v>
       </c>
-      <c r="G391" s="1">
+      <c r="G391" s="4">
         <v>900</v>
       </c>
-      <c r="H391">
+      <c r="H391" s="4">
         <f t="shared" si="15"/>
         <v>775</v>
       </c>
@@ -23337,13 +23337,13 @@
       <c r="E392" t="s">
         <v>45</v>
       </c>
-      <c r="F392" s="1">
+      <c r="F392" s="4">
         <v>650</v>
       </c>
-      <c r="G392" s="1">
+      <c r="G392" s="4">
         <v>900</v>
       </c>
-      <c r="H392">
+      <c r="H392" s="4">
         <f t="shared" si="15"/>
         <v>775</v>
       </c>
@@ -23372,13 +23372,13 @@
       <c r="E393" t="s">
         <v>45</v>
       </c>
-      <c r="F393" s="1">
+      <c r="F393" s="4">
         <v>750</v>
       </c>
-      <c r="G393" s="2">
+      <c r="G393" s="4">
         <v>1000</v>
       </c>
-      <c r="H393">
+      <c r="H393" s="4">
         <f t="shared" si="15"/>
         <v>875</v>
       </c>
@@ -23407,13 +23407,13 @@
       <c r="E394" t="s">
         <v>42</v>
       </c>
-      <c r="F394" s="2">
+      <c r="F394" s="4">
         <v>85000</v>
       </c>
-      <c r="G394" s="2">
+      <c r="G394" s="4">
         <v>110000</v>
       </c>
-      <c r="H394">
+      <c r="H394" s="4">
         <f t="shared" ref="H394:H417" si="17">MROUND((F394+G394)/2,1000)</f>
         <v>98000</v>
       </c>
@@ -23442,13 +23442,13 @@
       <c r="E395" t="s">
         <v>42</v>
       </c>
-      <c r="F395" s="2">
+      <c r="F395" s="4">
         <v>110000</v>
       </c>
-      <c r="G395" s="2">
+      <c r="G395" s="4">
         <v>140000</v>
       </c>
-      <c r="H395">
+      <c r="H395" s="4">
         <f t="shared" si="17"/>
         <v>125000</v>
       </c>
@@ -23477,13 +23477,13 @@
       <c r="E396" t="s">
         <v>42</v>
       </c>
-      <c r="F396" s="2">
+      <c r="F396" s="4">
         <v>130000</v>
       </c>
-      <c r="G396" s="2">
+      <c r="G396" s="4">
         <v>150000</v>
       </c>
-      <c r="H396">
+      <c r="H396" s="4">
         <f t="shared" si="17"/>
         <v>140000</v>
       </c>
@@ -23512,13 +23512,13 @@
       <c r="E397" t="s">
         <v>42</v>
       </c>
-      <c r="F397" s="2">
+      <c r="F397" s="4">
         <v>160000</v>
       </c>
-      <c r="G397" s="2">
+      <c r="G397" s="4">
         <v>200000</v>
       </c>
-      <c r="H397">
+      <c r="H397" s="4">
         <f t="shared" si="17"/>
         <v>180000</v>
       </c>
@@ -23547,13 +23547,13 @@
       <c r="E398" t="s">
         <v>42</v>
       </c>
-      <c r="F398" s="2">
+      <c r="F398" s="4">
         <v>85000</v>
       </c>
-      <c r="G398" s="2">
+      <c r="G398" s="4">
         <v>110000</v>
       </c>
-      <c r="H398">
+      <c r="H398" s="4">
         <f t="shared" si="17"/>
         <v>98000</v>
       </c>
@@ -23582,13 +23582,13 @@
       <c r="E399" t="s">
         <v>42</v>
       </c>
-      <c r="F399" s="2">
+      <c r="F399" s="4">
         <v>110000</v>
       </c>
-      <c r="G399" s="2">
+      <c r="G399" s="4">
         <v>140000</v>
       </c>
-      <c r="H399">
+      <c r="H399" s="4">
         <f t="shared" si="17"/>
         <v>125000</v>
       </c>
@@ -23617,13 +23617,13 @@
       <c r="E400" t="s">
         <v>42</v>
       </c>
-      <c r="F400" s="2">
+      <c r="F400" s="4">
         <v>95000</v>
       </c>
-      <c r="G400" s="2">
+      <c r="G400" s="4">
         <v>130000</v>
       </c>
-      <c r="H400">
+      <c r="H400" s="4">
         <f t="shared" si="17"/>
         <v>113000</v>
       </c>
@@ -23652,13 +23652,13 @@
       <c r="E401" t="s">
         <v>42</v>
       </c>
-      <c r="F401" s="2">
+      <c r="F401" s="4">
         <v>105000</v>
       </c>
-      <c r="G401" s="2">
+      <c r="G401" s="4">
         <v>135000</v>
       </c>
-      <c r="H401">
+      <c r="H401" s="4">
         <f t="shared" si="17"/>
         <v>120000</v>
       </c>
@@ -23687,13 +23687,13 @@
       <c r="E402" t="s">
         <v>42</v>
       </c>
-      <c r="F402" s="2">
+      <c r="F402" s="4">
         <v>155000</v>
       </c>
-      <c r="G402" s="2">
+      <c r="G402" s="4">
         <v>200000</v>
       </c>
-      <c r="H402">
+      <c r="H402" s="4">
         <f t="shared" si="17"/>
         <v>178000</v>
       </c>
@@ -23722,13 +23722,13 @@
       <c r="E403" t="s">
         <v>42</v>
       </c>
-      <c r="F403" s="2">
+      <c r="F403" s="4">
         <v>120000</v>
       </c>
-      <c r="G403" s="2">
+      <c r="G403" s="4">
         <v>150000</v>
       </c>
-      <c r="H403">
+      <c r="H403" s="4">
         <f t="shared" si="17"/>
         <v>135000</v>
       </c>
@@ -23757,13 +23757,13 @@
       <c r="E404" t="s">
         <v>42</v>
       </c>
-      <c r="F404" s="2">
+      <c r="F404" s="4">
         <v>120000</v>
       </c>
-      <c r="G404" s="2">
+      <c r="G404" s="4">
         <v>150000</v>
       </c>
-      <c r="H404">
+      <c r="H404" s="4">
         <f t="shared" si="17"/>
         <v>135000</v>
       </c>
@@ -23792,13 +23792,13 @@
       <c r="E405" t="s">
         <v>42</v>
       </c>
-      <c r="F405" s="2">
+      <c r="F405" s="4">
         <v>125000</v>
       </c>
-      <c r="G405" s="2">
+      <c r="G405" s="4">
         <v>150000</v>
       </c>
-      <c r="H405">
+      <c r="H405" s="4">
         <f t="shared" si="17"/>
         <v>138000</v>
       </c>
@@ -23827,13 +23827,13 @@
       <c r="E406" t="s">
         <v>42</v>
       </c>
-      <c r="F406" s="2">
+      <c r="F406" s="4">
         <v>155000</v>
       </c>
-      <c r="G406" s="2">
+      <c r="G406" s="4">
         <v>200000</v>
       </c>
-      <c r="H406">
+      <c r="H406" s="4">
         <f t="shared" si="17"/>
         <v>178000</v>
       </c>
@@ -23862,13 +23862,13 @@
       <c r="E407" t="s">
         <v>42</v>
       </c>
-      <c r="F407" s="2">
+      <c r="F407" s="4">
         <v>135000</v>
       </c>
-      <c r="G407" s="2">
+      <c r="G407" s="4">
         <v>165000</v>
       </c>
-      <c r="H407">
+      <c r="H407" s="4">
         <f t="shared" si="17"/>
         <v>150000</v>
       </c>
@@ -23897,13 +23897,13 @@
       <c r="E408" t="s">
         <v>42</v>
       </c>
-      <c r="F408" s="2">
+      <c r="F408" s="4">
         <v>90000</v>
       </c>
-      <c r="G408" s="2">
+      <c r="G408" s="4">
         <v>130000</v>
       </c>
-      <c r="H408">
+      <c r="H408" s="4">
         <f t="shared" si="17"/>
         <v>110000</v>
       </c>
@@ -23932,13 +23932,13 @@
       <c r="E409" t="s">
         <v>42</v>
       </c>
-      <c r="F409" s="2">
+      <c r="F409" s="4">
         <v>155000</v>
       </c>
-      <c r="G409" s="2">
+      <c r="G409" s="4">
         <v>200000</v>
       </c>
-      <c r="H409">
+      <c r="H409" s="4">
         <f t="shared" si="17"/>
         <v>178000</v>
       </c>
@@ -23967,13 +23967,13 @@
       <c r="E410" t="s">
         <v>42</v>
       </c>
-      <c r="F410" s="2">
+      <c r="F410" s="4">
         <v>130000</v>
       </c>
-      <c r="G410" s="2">
+      <c r="G410" s="4">
         <v>185000</v>
       </c>
-      <c r="H410">
+      <c r="H410" s="4">
         <f t="shared" si="17"/>
         <v>158000</v>
       </c>
@@ -24002,13 +24002,13 @@
       <c r="E411" t="s">
         <v>42</v>
       </c>
-      <c r="F411" s="2">
+      <c r="F411" s="4">
         <v>130000</v>
       </c>
-      <c r="G411" s="2">
+      <c r="G411" s="4">
         <v>185000</v>
       </c>
-      <c r="H411">
+      <c r="H411" s="4">
         <f t="shared" si="17"/>
         <v>158000</v>
       </c>
@@ -24037,13 +24037,13 @@
       <c r="E412" t="s">
         <v>42</v>
       </c>
-      <c r="F412" s="2">
+      <c r="F412" s="4">
         <v>130000</v>
       </c>
-      <c r="G412" s="2">
+      <c r="G412" s="4">
         <v>185000</v>
       </c>
-      <c r="H412">
+      <c r="H412" s="4">
         <f t="shared" si="17"/>
         <v>158000</v>
       </c>
@@ -24072,13 +24072,13 @@
       <c r="E413" t="s">
         <v>42</v>
       </c>
-      <c r="F413" s="2">
+      <c r="F413" s="4">
         <v>120000</v>
       </c>
-      <c r="G413" s="2">
+      <c r="G413" s="4">
         <v>150000</v>
       </c>
-      <c r="H413">
+      <c r="H413" s="4">
         <f t="shared" si="17"/>
         <v>135000</v>
       </c>
@@ -24107,13 +24107,13 @@
       <c r="E414" t="s">
         <v>42</v>
       </c>
-      <c r="F414" s="2">
+      <c r="F414" s="4">
         <v>140000</v>
       </c>
-      <c r="G414" s="2">
+      <c r="G414" s="4">
         <v>160000</v>
       </c>
-      <c r="H414">
+      <c r="H414" s="4">
         <f t="shared" si="17"/>
         <v>150000</v>
       </c>
@@ -24142,13 +24142,13 @@
       <c r="E415" t="s">
         <v>42</v>
       </c>
-      <c r="F415" s="2">
+      <c r="F415" s="4">
         <v>125000</v>
       </c>
-      <c r="G415" s="2">
+      <c r="G415" s="4">
         <v>150000</v>
       </c>
-      <c r="H415">
+      <c r="H415" s="4">
         <f t="shared" si="17"/>
         <v>138000</v>
       </c>
@@ -24177,13 +24177,13 @@
       <c r="E416" t="s">
         <v>42</v>
       </c>
-      <c r="F416" s="2">
+      <c r="F416" s="4">
         <v>130000</v>
       </c>
-      <c r="G416" s="2">
+      <c r="G416" s="4">
         <v>180000</v>
       </c>
-      <c r="H416">
+      <c r="H416" s="4">
         <f t="shared" si="17"/>
         <v>155000</v>
       </c>
@@ -24212,13 +24212,13 @@
       <c r="E417" t="s">
         <v>42</v>
       </c>
-      <c r="F417" s="2">
+      <c r="F417" s="4">
         <v>160000</v>
       </c>
-      <c r="G417" s="2">
+      <c r="G417" s="4">
         <v>200000</v>
       </c>
-      <c r="H417">
+      <c r="H417" s="4">
         <f t="shared" si="17"/>
         <v>180000</v>
       </c>
@@ -24247,13 +24247,13 @@
       <c r="E418" t="s">
         <v>45</v>
       </c>
-      <c r="F418" s="1">
+      <c r="F418" s="4">
         <v>445</v>
       </c>
-      <c r="G418" s="1">
+      <c r="G418" s="4">
         <v>575</v>
       </c>
-      <c r="H418">
+      <c r="H418" s="4">
         <f t="shared" ref="H418:H441" si="18">ROUND((F418+G418)/2,0)</f>
         <v>510</v>
       </c>
@@ -24282,13 +24282,13 @@
       <c r="E419" t="s">
         <v>45</v>
       </c>
-      <c r="F419" s="1">
+      <c r="F419" s="4">
         <v>700</v>
       </c>
-      <c r="G419" s="1">
+      <c r="G419" s="4">
         <v>900</v>
       </c>
-      <c r="H419">
+      <c r="H419" s="4">
         <f t="shared" si="18"/>
         <v>800</v>
       </c>
@@ -24317,13 +24317,13 @@
       <c r="E420" t="s">
         <v>45</v>
       </c>
-      <c r="F420" s="1">
+      <c r="F420" s="4">
         <v>680</v>
       </c>
-      <c r="G420" s="1">
+      <c r="G420" s="4">
         <v>780</v>
       </c>
-      <c r="H420">
+      <c r="H420" s="4">
         <f t="shared" si="18"/>
         <v>730</v>
       </c>
@@ -24352,13 +24352,13 @@
       <c r="E421" t="s">
         <v>45</v>
       </c>
-      <c r="F421" s="1">
+      <c r="F421" s="4">
         <v>850</v>
       </c>
-      <c r="G421" s="2">
+      <c r="G421" s="4">
         <v>1200</v>
       </c>
-      <c r="H421">
+      <c r="H421" s="4">
         <f t="shared" si="18"/>
         <v>1025</v>
       </c>
@@ -24387,13 +24387,13 @@
       <c r="E422" t="s">
         <v>45</v>
       </c>
-      <c r="F422" s="1">
+      <c r="F422" s="4">
         <v>450</v>
       </c>
-      <c r="G422" s="1">
+      <c r="G422" s="4">
         <v>650</v>
       </c>
-      <c r="H422">
+      <c r="H422" s="4">
         <f t="shared" si="18"/>
         <v>550</v>
       </c>
@@ -24422,13 +24422,13 @@
       <c r="E423" t="s">
         <v>45</v>
       </c>
-      <c r="F423" s="1">
+      <c r="F423" s="4">
         <v>575</v>
       </c>
-      <c r="G423" s="1">
+      <c r="G423" s="4">
         <v>730</v>
       </c>
-      <c r="H423">
+      <c r="H423" s="4">
         <f t="shared" si="18"/>
         <v>653</v>
       </c>
@@ -24457,13 +24457,13 @@
       <c r="E424" t="s">
         <v>45</v>
       </c>
-      <c r="F424" s="1">
+      <c r="F424" s="4">
         <v>550</v>
       </c>
-      <c r="G424" s="1">
+      <c r="G424" s="4">
         <v>800</v>
       </c>
-      <c r="H424">
+      <c r="H424" s="4">
         <f t="shared" si="18"/>
         <v>675</v>
       </c>
@@ -24492,13 +24492,13 @@
       <c r="E425" t="s">
         <v>45</v>
       </c>
-      <c r="F425" s="1">
+      <c r="F425" s="4">
         <v>550</v>
       </c>
-      <c r="G425" s="1">
+      <c r="G425" s="4">
         <v>705</v>
       </c>
-      <c r="H425">
+      <c r="H425" s="4">
         <f t="shared" si="18"/>
         <v>628</v>
       </c>
@@ -24527,13 +24527,13 @@
       <c r="E426" t="s">
         <v>45</v>
       </c>
-      <c r="F426" s="1">
+      <c r="F426" s="4">
         <v>805</v>
       </c>
-      <c r="G426" s="2">
+      <c r="G426" s="4">
         <v>1130</v>
       </c>
-      <c r="H426">
+      <c r="H426" s="4">
         <f t="shared" si="18"/>
         <v>968</v>
       </c>
@@ -24562,13 +24562,13 @@
       <c r="E427" t="s">
         <v>45</v>
       </c>
-      <c r="F427" s="1">
+      <c r="F427" s="4">
         <v>635</v>
       </c>
-      <c r="G427" s="1">
+      <c r="G427" s="4">
         <v>850</v>
       </c>
-      <c r="H427">
+      <c r="H427" s="4">
         <f t="shared" si="18"/>
         <v>743</v>
       </c>
@@ -24597,13 +24597,13 @@
       <c r="E428" t="s">
         <v>45</v>
       </c>
-      <c r="F428" s="1">
+      <c r="F428" s="4">
         <v>635</v>
       </c>
-      <c r="G428" s="1">
+      <c r="G428" s="4">
         <v>850</v>
       </c>
-      <c r="H428">
+      <c r="H428" s="4">
         <f t="shared" si="18"/>
         <v>743</v>
       </c>
@@ -24632,13 +24632,13 @@
       <c r="E429" t="s">
         <v>45</v>
       </c>
-      <c r="F429" s="1">
+      <c r="F429" s="4">
         <v>635</v>
       </c>
-      <c r="G429" s="1">
+      <c r="G429" s="4">
         <v>850</v>
       </c>
-      <c r="H429">
+      <c r="H429" s="4">
         <f t="shared" si="18"/>
         <v>743</v>
       </c>
@@ -24667,13 +24667,13 @@
       <c r="E430" t="s">
         <v>45</v>
       </c>
-      <c r="F430" s="1">
+      <c r="F430" s="4">
         <v>805</v>
       </c>
-      <c r="G430" s="2">
+      <c r="G430" s="4">
         <v>1130</v>
       </c>
-      <c r="H430">
+      <c r="H430" s="4">
         <f t="shared" si="18"/>
         <v>968</v>
       </c>
@@ -24702,13 +24702,13 @@
       <c r="E431" t="s">
         <v>45</v>
       </c>
-      <c r="F431" s="1">
+      <c r="F431" s="4">
         <v>705</v>
       </c>
-      <c r="G431" s="1">
+      <c r="G431" s="4">
         <v>930</v>
       </c>
-      <c r="H431">
+      <c r="H431" s="4">
         <f t="shared" si="18"/>
         <v>818</v>
       </c>
@@ -24737,13 +24737,13 @@
       <c r="E432" t="s">
         <v>45</v>
       </c>
-      <c r="F432" s="1">
+      <c r="F432" s="4">
         <v>470</v>
       </c>
-      <c r="G432" s="1">
+      <c r="G432" s="4">
         <v>735</v>
       </c>
-      <c r="H432">
+      <c r="H432" s="4">
         <f t="shared" si="18"/>
         <v>603</v>
       </c>
@@ -24772,13 +24772,13 @@
       <c r="E433" t="s">
         <v>45</v>
       </c>
-      <c r="F433" s="1">
+      <c r="F433" s="4">
         <v>800</v>
       </c>
-      <c r="G433" s="1">
+      <c r="G433" s="4">
         <v>1130</v>
       </c>
-      <c r="H433">
+      <c r="H433" s="4">
         <f t="shared" si="18"/>
         <v>965</v>
       </c>
@@ -24807,13 +24807,13 @@
       <c r="E434" t="s">
         <v>45</v>
       </c>
-      <c r="F434" s="1">
+      <c r="F434" s="4">
         <v>680</v>
       </c>
-      <c r="G434" s="2">
+      <c r="G434" s="4">
         <v>1045</v>
       </c>
-      <c r="H434">
+      <c r="H434" s="4">
         <f t="shared" si="18"/>
         <v>863</v>
       </c>
@@ -24842,13 +24842,13 @@
       <c r="E435" t="s">
         <v>45</v>
       </c>
-      <c r="F435" s="1">
+      <c r="F435" s="4">
         <v>680</v>
       </c>
-      <c r="G435" s="2">
+      <c r="G435" s="4">
         <v>1045</v>
       </c>
-      <c r="H435">
+      <c r="H435" s="4">
         <f t="shared" si="18"/>
         <v>863</v>
       </c>
@@ -24877,13 +24877,13 @@
       <c r="E436" t="s">
         <v>45</v>
       </c>
-      <c r="F436" s="1">
+      <c r="F436" s="4">
         <v>680</v>
       </c>
-      <c r="G436" s="2">
+      <c r="G436" s="4">
         <v>1045</v>
       </c>
-      <c r="H436">
+      <c r="H436" s="4">
         <f t="shared" si="18"/>
         <v>863</v>
       </c>
@@ -24912,13 +24912,13 @@
       <c r="E437" t="s">
         <v>45</v>
       </c>
-      <c r="F437" s="1">
+      <c r="F437" s="4">
         <v>635</v>
       </c>
-      <c r="G437" s="1">
+      <c r="G437" s="4">
         <v>850</v>
       </c>
-      <c r="H437">
+      <c r="H437" s="4">
         <f t="shared" si="18"/>
         <v>743</v>
       </c>
@@ -24947,13 +24947,13 @@
       <c r="E438" t="s">
         <v>45</v>
       </c>
-      <c r="F438" s="1">
+      <c r="F438" s="4">
         <v>730</v>
       </c>
-      <c r="G438" s="1">
+      <c r="G438" s="4">
         <v>905</v>
       </c>
-      <c r="H438">
+      <c r="H438" s="4">
         <f t="shared" si="18"/>
         <v>818</v>
       </c>
@@ -24982,13 +24982,13 @@
       <c r="E439" t="s">
         <v>45</v>
       </c>
-      <c r="F439" s="1">
+      <c r="F439" s="4">
         <v>650</v>
       </c>
-      <c r="G439" s="1">
+      <c r="G439" s="4">
         <v>850</v>
       </c>
-      <c r="H439">
+      <c r="H439" s="4">
         <f t="shared" si="18"/>
         <v>750</v>
       </c>
@@ -25017,13 +25017,13 @@
       <c r="E440" t="s">
         <v>45</v>
       </c>
-      <c r="F440" s="1">
+      <c r="F440" s="4">
         <v>680</v>
       </c>
-      <c r="G440" s="2">
+      <c r="G440" s="4">
         <v>1015</v>
       </c>
-      <c r="H440">
+      <c r="H440" s="4">
         <f t="shared" si="18"/>
         <v>848</v>
       </c>
@@ -25052,13 +25052,13 @@
       <c r="E441" t="s">
         <v>45</v>
       </c>
-      <c r="F441" s="1">
+      <c r="F441" s="4">
         <v>835</v>
       </c>
-      <c r="G441" s="2">
+      <c r="G441" s="4">
         <v>1130</v>
       </c>
-      <c r="H441">
+      <c r="H441" s="4">
         <f t="shared" si="18"/>
         <v>983</v>
       </c>
@@ -25074,6 +25074,7 @@
   </sheetData>
   <autoFilter ref="A1:J441" xr:uid="{040D6B7E-D42F-4E80-BE8A-3CBD727B1988}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Jamie/Benchmark_csv/Benchmark table in Excel.xlsx
+++ b/Jamie/Benchmark_csv/Benchmark table in Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foong\Google Drive\PREWORK_JT\Project_2\Project_2\Jamie\Benchmark_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C916F91B-D463-4619-ABDF-5307A32E4817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A753B906-5FB6-46F2-8FF0-C31627061CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5ED0A3BE-DDE0-4D99-8AB8-87EA002B46C5}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="transformation Rowben" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$J$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$J$465</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Keywords!$G$1:$H$445</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="125">
   <si>
     <t>Job Role</t>
   </si>
@@ -415,6 +415,12 @@
   <si>
     <t>Project Analyst</t>
   </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
 </sst>
 </file>
 
@@ -455,11 +461,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5439,7 +5446,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024C8156-31E8-47DB-9524-6322BB6E985B}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{024C8156-31E8-47DB-9524-6322BB6E985B}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6082,11 +6089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E577518-6F7A-4DDA-9743-D4A58684B4C4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O441"/>
+  <dimension ref="A1:O465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H432"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -6137,7 +6143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -6334,14 +6340,14 @@
       </c>
       <c r="I7" t="str">
         <f>IF(VLOOKUP(B7,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B7,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -6402,14 +6408,14 @@
       </c>
       <c r="I9" t="str">
         <f>IF(VLOOKUP(B9,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B9,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -6436,14 +6442,14 @@
       </c>
       <c r="I10" t="str">
         <f>IF(VLOOKUP(B10,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B10,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -6470,14 +6476,14 @@
       </c>
       <c r="I11" t="str">
         <f>IF(VLOOKUP(B11,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B11,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -6542,7 +6548,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -6576,10 +6582,10 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -6613,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6647,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -6749,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -6878,14 +6884,14 @@
       </c>
       <c r="I23" t="str">
         <f>IF(VLOOKUP(B23,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B23,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -6912,14 +6918,14 @@
       </c>
       <c r="I24" t="str">
         <f>IF(VLOOKUP(B24,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B24,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -6946,14 +6952,14 @@
       </c>
       <c r="I25" t="str">
         <f>IF(VLOOKUP(B25,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B25,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -6980,14 +6986,14 @@
       </c>
       <c r="I26" t="str">
         <f>IF(VLOOKUP(B26,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B26,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -7055,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -7157,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7184,14 +7190,14 @@
       </c>
       <c r="I32" t="str">
         <f>IF(VLOOKUP(B32,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B32,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -7225,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -7252,14 +7258,14 @@
       </c>
       <c r="I34" t="str">
         <f>IF(VLOOKUP(B34,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B34,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -7286,14 +7292,14 @@
       </c>
       <c r="I35" t="str">
         <f>IF(VLOOKUP(B35,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B35,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -7320,14 +7326,14 @@
       </c>
       <c r="I36" t="str">
         <f>IF(VLOOKUP(B36,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B36,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -7392,7 +7398,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -7426,10 +7432,10 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -7633,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -7728,14 +7734,14 @@
       </c>
       <c r="I48" t="str">
         <f>IF(VLOOKUP(B48,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B48,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -7762,14 +7768,14 @@
       </c>
       <c r="I49" t="str">
         <f>IF(VLOOKUP(B49,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B49,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -7796,14 +7802,14 @@
       </c>
       <c r="I50" t="str">
         <f>IF(VLOOKUP(B50,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B50,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -7830,14 +7836,14 @@
       </c>
       <c r="I51" t="str">
         <f>IF(VLOOKUP(B51,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B51,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -7905,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -7939,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -7973,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -8041,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -8109,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -8177,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -8313,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -8347,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -8415,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -8551,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -8578,14 +8584,14 @@
       </c>
       <c r="I73" t="str">
         <f>IF(VLOOKUP(B73,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B73,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J73">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -8619,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -8721,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -8755,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -8782,14 +8788,14 @@
       </c>
       <c r="I79" t="str">
         <f>IF(VLOOKUP(B79,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B79,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -8823,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -8857,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -8925,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -8959,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -8986,14 +8992,14 @@
       </c>
       <c r="I85" t="str">
         <f>IF(VLOOKUP(B85,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B85,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -9061,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -9129,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -9190,14 +9196,14 @@
       </c>
       <c r="I91" t="str">
         <f>IF(VLOOKUP(B91,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B91,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J91">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -9231,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -9296,10 +9302,10 @@
       </c>
       <c r="J94">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -9333,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -9394,14 +9400,14 @@
       </c>
       <c r="I97" t="str">
         <f>IF(VLOOKUP(B97,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B97,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Project Analyst</v>
       </c>
       <c r="J97">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -9500,10 +9506,10 @@
       </c>
       <c r="J100">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -9571,7 +9577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -9598,14 +9604,14 @@
       </c>
       <c r="I103" t="str">
         <f>IF(VLOOKUP(B103,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B103,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Project Analyst</v>
       </c>
       <c r="J103">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -9639,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -9673,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -9700,14 +9706,14 @@
       </c>
       <c r="I106" t="str">
         <f>IF(VLOOKUP(B106,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B106,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J106">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -9734,14 +9740,14 @@
       </c>
       <c r="I107" t="str">
         <f>IF(VLOOKUP(B107,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B107,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -9768,7 +9774,7 @@
       </c>
       <c r="I108" t="str">
         <f>IF(VLOOKUP(B108,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B108,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J108">
         <f t="shared" si="1"/>
@@ -9806,7 +9812,7 @@
       </c>
       <c r="J109">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -9840,10 +9846,10 @@
       </c>
       <c r="J110">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -9877,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -9945,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -9979,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>41</v>
       </c>
@@ -10013,7 +10019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -10047,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -10108,14 +10114,14 @@
       </c>
       <c r="I118" t="str">
         <f>IF(VLOOKUP(B118,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B118,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -10142,14 +10148,14 @@
       </c>
       <c r="I119" t="str">
         <f>IF(VLOOKUP(B119,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B119,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -10176,14 +10182,14 @@
       </c>
       <c r="I120" t="str">
         <f>IF(VLOOKUP(B120,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B120,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -10217,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -10251,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -10278,14 +10284,14 @@
       </c>
       <c r="I123" t="str">
         <f>IF(VLOOKUP(B123,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B123,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Project Analyst</v>
       </c>
       <c r="J123">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>41</v>
       </c>
@@ -10353,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>41</v>
       </c>
@@ -10387,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -10421,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -10455,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>41</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -10516,14 +10522,14 @@
       </c>
       <c r="I130" t="str">
         <f>IF(VLOOKUP(B130,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B130,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J130">
         <f t="shared" ref="J130:J193" si="2">COUNTIFS(B:B,B130,D:D,D130,E:E,E130,A:A,A130)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -10550,14 +10556,14 @@
       </c>
       <c r="I131" t="str">
         <f>IF(VLOOKUP(B131,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B131,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J131">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -10584,7 +10590,7 @@
       </c>
       <c r="I132" t="str">
         <f>IF(VLOOKUP(B132,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B132,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J132">
         <f t="shared" si="2"/>
@@ -10622,7 +10628,7 @@
       </c>
       <c r="J133">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
@@ -10656,10 +10662,10 @@
       </c>
       <c r="J134">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -10693,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -10761,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -10795,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -10829,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -10863,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -10897,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -10924,14 +10930,14 @@
       </c>
       <c r="I142" t="str">
         <f>IF(VLOOKUP(B142,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B142,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J142">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -10958,14 +10964,14 @@
       </c>
       <c r="I143" t="str">
         <f>IF(VLOOKUP(B143,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B143,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J143">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -10992,14 +10998,14 @@
       </c>
       <c r="I144" t="str">
         <f>IF(VLOOKUP(B144,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B144,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Big Data</v>
       </c>
       <c r="J144">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>41</v>
       </c>
@@ -11033,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>41</v>
       </c>
@@ -11067,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -11094,14 +11100,14 @@
       </c>
       <c r="I147" t="str">
         <f>IF(VLOOKUP(B147,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B147,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Project Analyst</v>
       </c>
       <c r="J147">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>41</v>
       </c>
@@ -11135,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>41</v>
       </c>
@@ -11169,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>41</v>
       </c>
@@ -11203,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -11237,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -11271,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>41</v>
       </c>
@@ -11305,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>41</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -11373,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>41</v>
       </c>
@@ -11407,7 +11413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -11434,7 +11440,7 @@
       </c>
       <c r="I157" t="str">
         <f>IF(VLOOKUP(B157,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B157,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J157">
         <f t="shared" si="2"/>
@@ -11472,10 +11478,10 @@
       </c>
       <c r="J158">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -11509,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>41</v>
       </c>
@@ -11577,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>41</v>
       </c>
@@ -11611,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>41</v>
       </c>
@@ -11645,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -11672,7 +11678,7 @@
       </c>
       <c r="I164" t="str">
         <f>IF(VLOOKUP(B164,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B164,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J164">
         <f t="shared" si="2"/>
@@ -11710,10 +11716,10 @@
       </c>
       <c r="J165">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>92</v>
       </c>
@@ -11748,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>92</v>
       </c>
@@ -11783,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -11811,14 +11817,14 @@
       </c>
       <c r="I168" t="str">
         <f>IF(VLOOKUP(B168,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B168,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Data Architect</v>
       </c>
       <c r="J168">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>92</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>92</v>
       </c>
@@ -11923,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>92</v>
       </c>
@@ -11958,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -11986,14 +11992,14 @@
       </c>
       <c r="I173" t="str">
         <f>IF(VLOOKUP(B173,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B173,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J173">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>92</v>
       </c>
@@ -12021,14 +12027,14 @@
       </c>
       <c r="I174" t="str">
         <f>IF(VLOOKUP(B174,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B174,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J174">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>92</v>
       </c>
@@ -12056,14 +12062,14 @@
       </c>
       <c r="I175" t="str">
         <f>IF(VLOOKUP(B175,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B175,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J175">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>92</v>
       </c>
@@ -12130,10 +12136,10 @@
       </c>
       <c r="J177">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -12168,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -12203,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -12238,7 +12244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>92</v>
       </c>
@@ -12273,7 +12279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>92</v>
       </c>
@@ -12308,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>92</v>
       </c>
@@ -12343,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>92</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>92</v>
       </c>
@@ -12413,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -12448,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>92</v>
       </c>
@@ -12483,7 +12489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>92</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>92</v>
       </c>
@@ -12546,14 +12552,14 @@
       </c>
       <c r="I189" t="str">
         <f>IF(VLOOKUP(B189,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B189,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Data Architect</v>
       </c>
       <c r="J189">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>92</v>
       </c>
@@ -12588,7 +12594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>92</v>
       </c>
@@ -12623,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>92</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>92</v>
       </c>
@@ -12693,7 +12699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>92</v>
       </c>
@@ -12721,14 +12727,14 @@
       </c>
       <c r="I194" t="str">
         <f>IF(VLOOKUP(B194,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B194,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J194">
         <f t="shared" ref="J194:J257" si="5">COUNTIFS(B:B,B194,D:D,D194,E:E,E194,A:A,A194)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>92</v>
       </c>
@@ -12756,14 +12762,14 @@
       </c>
       <c r="I195" t="str">
         <f>IF(VLOOKUP(B195,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B195,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J195">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>92</v>
       </c>
@@ -12791,14 +12797,14 @@
       </c>
       <c r="I196" t="str">
         <f>IF(VLOOKUP(B196,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B196,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J196">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>92</v>
       </c>
@@ -12865,10 +12871,10 @@
       </c>
       <c r="J198">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>92</v>
       </c>
@@ -12903,7 +12909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>92</v>
       </c>
@@ -12938,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>92</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>92</v>
       </c>
@@ -13008,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>92</v>
       </c>
@@ -13043,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>92</v>
       </c>
@@ -13078,7 +13084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>92</v>
       </c>
@@ -13113,7 +13119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>92</v>
       </c>
@@ -13148,7 +13154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>92</v>
       </c>
@@ -13183,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>92</v>
       </c>
@@ -13218,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>92</v>
       </c>
@@ -13253,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>92</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>92</v>
       </c>
@@ -13323,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>92</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>92</v>
       </c>
@@ -13393,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -13428,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -13463,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>92</v>
       </c>
@@ -13498,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>92</v>
       </c>
@@ -13526,14 +13532,14 @@
       </c>
       <c r="I217" t="str">
         <f>IF(VLOOKUP(B217,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B217,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J217">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>92</v>
       </c>
@@ -13561,14 +13567,14 @@
       </c>
       <c r="I218" t="str">
         <f>IF(VLOOKUP(B218,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B218,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J218">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -13596,14 +13602,14 @@
       </c>
       <c r="I219" t="str">
         <f>IF(VLOOKUP(B219,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B219,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J219">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>92</v>
       </c>
@@ -13670,10 +13676,10 @@
       </c>
       <c r="J221">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>92</v>
       </c>
@@ -13708,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>92</v>
       </c>
@@ -13743,7 +13749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>92</v>
       </c>
@@ -13778,7 +13784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>92</v>
       </c>
@@ -13813,7 +13819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>92</v>
       </c>
@@ -13848,7 +13854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>92</v>
       </c>
@@ -13883,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>92</v>
       </c>
@@ -13918,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>92</v>
       </c>
@@ -13953,7 +13959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>92</v>
       </c>
@@ -13988,7 +13994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>92</v>
       </c>
@@ -14023,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -14058,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>92</v>
       </c>
@@ -14093,7 +14099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>92</v>
       </c>
@@ -14128,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>92</v>
       </c>
@@ -14163,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>92</v>
       </c>
@@ -14198,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>92</v>
       </c>
@@ -14233,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>92</v>
       </c>
@@ -14268,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>92</v>
       </c>
@@ -14303,7 +14309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>92</v>
       </c>
@@ -14331,14 +14337,14 @@
       </c>
       <c r="I240" t="str">
         <f>IF(VLOOKUP(B240,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B240,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J240">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>92</v>
       </c>
@@ -14366,14 +14372,14 @@
       </c>
       <c r="I241" t="str">
         <f>IF(VLOOKUP(B241,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B241,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J241">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>92</v>
       </c>
@@ -14401,14 +14407,14 @@
       </c>
       <c r="I242" t="str">
         <f>IF(VLOOKUP(B242,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B242,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J242">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>92</v>
       </c>
@@ -14475,10 +14481,10 @@
       </c>
       <c r="J244">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>92</v>
       </c>
@@ -14513,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>92</v>
       </c>
@@ -14548,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>92</v>
       </c>
@@ -14583,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>92</v>
       </c>
@@ -14618,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>92</v>
       </c>
@@ -14653,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>92</v>
       </c>
@@ -14688,7 +14694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>92</v>
       </c>
@@ -14723,7 +14729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>92</v>
       </c>
@@ -14758,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>92</v>
       </c>
@@ -14793,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>92</v>
       </c>
@@ -14828,7 +14834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>92</v>
       </c>
@@ -14863,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>92</v>
       </c>
@@ -14898,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>92</v>
       </c>
@@ -14933,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>92</v>
       </c>
@@ -14968,7 +14974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>92</v>
       </c>
@@ -15003,7 +15009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>92</v>
       </c>
@@ -15038,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>92</v>
       </c>
@@ -15073,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>92</v>
       </c>
@@ -15101,14 +15107,14 @@
       </c>
       <c r="I262" t="str">
         <f>IF(VLOOKUP(B262,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B262,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J262">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>92</v>
       </c>
@@ -15136,14 +15142,14 @@
       </c>
       <c r="I263" t="str">
         <f>IF(VLOOKUP(B263,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B263,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J263">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>92</v>
       </c>
@@ -15171,14 +15177,14 @@
       </c>
       <c r="I264" t="str">
         <f>IF(VLOOKUP(B264,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B264,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J264">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>92</v>
       </c>
@@ -15245,10 +15251,10 @@
       </c>
       <c r="J266">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>92</v>
       </c>
@@ -15283,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>92</v>
       </c>
@@ -15318,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>92</v>
       </c>
@@ -15353,7 +15359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>92</v>
       </c>
@@ -15388,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>92</v>
       </c>
@@ -15423,7 +15429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>92</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>92</v>
       </c>
@@ -15493,7 +15499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>92</v>
       </c>
@@ -15528,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>92</v>
       </c>
@@ -15563,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>92</v>
       </c>
@@ -15598,7 +15604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>92</v>
       </c>
@@ -15633,7 +15639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>92</v>
       </c>
@@ -15668,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>92</v>
       </c>
@@ -15703,7 +15709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>92</v>
       </c>
@@ -15738,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>92</v>
       </c>
@@ -15773,7 +15779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>92</v>
       </c>
@@ -15808,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>92</v>
       </c>
@@ -15843,7 +15849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>92</v>
       </c>
@@ -15871,14 +15877,14 @@
       </c>
       <c r="I284" t="str">
         <f>IF(VLOOKUP(B284,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B284,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J284">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>92</v>
       </c>
@@ -15906,14 +15912,14 @@
       </c>
       <c r="I285" t="str">
         <f>IF(VLOOKUP(B285,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B285,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J285">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>92</v>
       </c>
@@ -15941,14 +15947,14 @@
       </c>
       <c r="I286" t="str">
         <f>IF(VLOOKUP(B286,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B286,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J286">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>92</v>
       </c>
@@ -16015,10 +16021,10 @@
       </c>
       <c r="J288">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>92</v>
       </c>
@@ -16053,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>92</v>
       </c>
@@ -16088,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>92</v>
       </c>
@@ -16123,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>92</v>
       </c>
@@ -16158,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>92</v>
       </c>
@@ -16193,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>92</v>
       </c>
@@ -16228,7 +16234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>92</v>
       </c>
@@ -16263,7 +16269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>92</v>
       </c>
@@ -16298,7 +16304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>92</v>
       </c>
@@ -16333,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -16368,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>92</v>
       </c>
@@ -16403,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>92</v>
       </c>
@@ -16431,14 +16437,14 @@
       </c>
       <c r="I300" t="str">
         <f>IF(VLOOKUP(B300,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B300,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Data Architect</v>
       </c>
       <c r="J300">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>92</v>
       </c>
@@ -16473,7 +16479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>92</v>
       </c>
@@ -16508,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>92</v>
       </c>
@@ -16543,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>92</v>
       </c>
@@ -16578,7 +16584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>92</v>
       </c>
@@ -16613,7 +16619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>92</v>
       </c>
@@ -16648,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>92</v>
       </c>
@@ -16683,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>92</v>
       </c>
@@ -16718,7 +16724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>92</v>
       </c>
@@ -16746,14 +16752,14 @@
       </c>
       <c r="I309" t="str">
         <f>IF(VLOOKUP(B309,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B309,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J309">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>92</v>
       </c>
@@ -16781,14 +16787,14 @@
       </c>
       <c r="I310" t="str">
         <f>IF(VLOOKUP(B310,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B310,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J310">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>92</v>
       </c>
@@ -16816,14 +16822,14 @@
       </c>
       <c r="I311" t="str">
         <f>IF(VLOOKUP(B311,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B311,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J311">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>92</v>
       </c>
@@ -16890,10 +16896,10 @@
       </c>
       <c r="J313">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>92</v>
       </c>
@@ -16928,7 +16934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>92</v>
       </c>
@@ -16963,7 +16969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>92</v>
       </c>
@@ -16998,7 +17004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>92</v>
       </c>
@@ -17033,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>92</v>
       </c>
@@ -17068,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>92</v>
       </c>
@@ -17103,7 +17109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>92</v>
       </c>
@@ -17138,7 +17144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>92</v>
       </c>
@@ -17173,7 +17179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>92</v>
       </c>
@@ -17208,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>92</v>
       </c>
@@ -17243,7 +17249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>92</v>
       </c>
@@ -17278,7 +17284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>92</v>
       </c>
@@ -17306,14 +17312,14 @@
       </c>
       <c r="I325" t="str">
         <f>IF(VLOOKUP(B325,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B325,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Data Architect</v>
       </c>
       <c r="J325">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>92</v>
       </c>
@@ -17348,7 +17354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>92</v>
       </c>
@@ -17383,7 +17389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>92</v>
       </c>
@@ -17418,7 +17424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>92</v>
       </c>
@@ -17453,7 +17459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>92</v>
       </c>
@@ -17488,7 +17494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>92</v>
       </c>
@@ -17523,7 +17529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>92</v>
       </c>
@@ -17558,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>92</v>
       </c>
@@ -17593,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>92</v>
       </c>
@@ -17621,14 +17627,14 @@
       </c>
       <c r="I334" t="str">
         <f>IF(VLOOKUP(B334,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B334,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J334">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>92</v>
       </c>
@@ -17656,14 +17662,14 @@
       </c>
       <c r="I335" t="str">
         <f>IF(VLOOKUP(B335,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B335,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J335">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>92</v>
       </c>
@@ -17691,14 +17697,14 @@
       </c>
       <c r="I336" t="str">
         <f>IF(VLOOKUP(B336,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B336,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J336">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>92</v>
       </c>
@@ -17765,10 +17771,10 @@
       </c>
       <c r="J338">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>92</v>
       </c>
@@ -17803,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>92</v>
       </c>
@@ -17838,7 +17844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>92</v>
       </c>
@@ -17873,7 +17879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>92</v>
       </c>
@@ -17908,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>92</v>
       </c>
@@ -17943,7 +17949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>92</v>
       </c>
@@ -17978,7 +17984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>92</v>
       </c>
@@ -18013,7 +18019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>92</v>
       </c>
@@ -18048,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>92</v>
       </c>
@@ -18083,7 +18089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>92</v>
       </c>
@@ -18118,7 +18124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>92</v>
       </c>
@@ -18153,7 +18159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>92</v>
       </c>
@@ -18188,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>92</v>
       </c>
@@ -18223,7 +18229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>92</v>
       </c>
@@ -18258,7 +18264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>92</v>
       </c>
@@ -18293,7 +18299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>92</v>
       </c>
@@ -18328,7 +18334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>92</v>
       </c>
@@ -18363,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>92</v>
       </c>
@@ -18398,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>92</v>
       </c>
@@ -18426,14 +18432,14 @@
       </c>
       <c r="I357" t="str">
         <f>IF(VLOOKUP(B357,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B357,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J357">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>92</v>
       </c>
@@ -18461,14 +18467,14 @@
       </c>
       <c r="I358" t="str">
         <f>IF(VLOOKUP(B358,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B358,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J358">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>92</v>
       </c>
@@ -18496,14 +18502,14 @@
       </c>
       <c r="I359" t="str">
         <f>IF(VLOOKUP(B359,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B359,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J359">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>92</v>
       </c>
@@ -18570,10 +18576,10 @@
       </c>
       <c r="J361">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>92</v>
       </c>
@@ -18608,7 +18614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>92</v>
       </c>
@@ -18643,7 +18649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>92</v>
       </c>
@@ -18678,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>92</v>
       </c>
@@ -18713,7 +18719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>92</v>
       </c>
@@ -18748,7 +18754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>92</v>
       </c>
@@ -18783,7 +18789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>92</v>
       </c>
@@ -18818,7 +18824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>92</v>
       </c>
@@ -18853,7 +18859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>92</v>
       </c>
@@ -18888,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>92</v>
       </c>
@@ -18923,7 +18929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>92</v>
       </c>
@@ -18958,7 +18964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>92</v>
       </c>
@@ -18993,7 +18999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>92</v>
       </c>
@@ -19028,7 +19034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>92</v>
       </c>
@@ -19063,7 +19069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>92</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>92</v>
       </c>
@@ -19133,7 +19139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>92</v>
       </c>
@@ -19168,7 +19174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>92</v>
       </c>
@@ -19203,7 +19209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>92</v>
       </c>
@@ -19231,14 +19237,14 @@
       </c>
       <c r="I380" t="str">
         <f>IF(VLOOKUP(B380,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B380,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J380">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>92</v>
       </c>
@@ -19266,14 +19272,14 @@
       </c>
       <c r="I381" t="str">
         <f>IF(VLOOKUP(B381,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B381,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J381">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>92</v>
       </c>
@@ -19301,14 +19307,14 @@
       </c>
       <c r="I382" t="str">
         <f>IF(VLOOKUP(B382,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B382,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J382">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>92</v>
       </c>
@@ -19375,10 +19381,10 @@
       </c>
       <c r="J384">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>92</v>
       </c>
@@ -19413,7 +19419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>92</v>
       </c>
@@ -19448,7 +19454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>92</v>
       </c>
@@ -19483,7 +19489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>92</v>
       </c>
@@ -19518,7 +19524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>92</v>
       </c>
@@ -19553,7 +19559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>92</v>
       </c>
@@ -19588,7 +19594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>92</v>
       </c>
@@ -19623,7 +19629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>92</v>
       </c>
@@ -19658,7 +19664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>92</v>
       </c>
@@ -19693,7 +19699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>92</v>
       </c>
@@ -19728,7 +19734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>92</v>
       </c>
@@ -19763,7 +19769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>92</v>
       </c>
@@ -19798,7 +19804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>92</v>
       </c>
@@ -19833,7 +19839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>92</v>
       </c>
@@ -19868,7 +19874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>92</v>
       </c>
@@ -19903,7 +19909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>92</v>
       </c>
@@ -19938,7 +19944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>92</v>
       </c>
@@ -19973,7 +19979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>92</v>
       </c>
@@ -20008,7 +20014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>92</v>
       </c>
@@ -20043,7 +20049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>92</v>
       </c>
@@ -20071,14 +20077,14 @@
       </c>
       <c r="I404" t="str">
         <f>IF(VLOOKUP(B404,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B404,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J404">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>92</v>
       </c>
@@ -20106,14 +20112,14 @@
       </c>
       <c r="I405" t="str">
         <f>IF(VLOOKUP(B405,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B405,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J405">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>92</v>
       </c>
@@ -20141,14 +20147,14 @@
       </c>
       <c r="I406" t="str">
         <f>IF(VLOOKUP(B406,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B406,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J406">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>92</v>
       </c>
@@ -20215,10 +20221,10 @@
       </c>
       <c r="J408">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>92</v>
       </c>
@@ -20253,7 +20259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>92</v>
       </c>
@@ -20288,7 +20294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>92</v>
       </c>
@@ -20323,7 +20329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -20358,7 +20364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>92</v>
       </c>
@@ -20393,7 +20399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>92</v>
       </c>
@@ -20428,7 +20434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>92</v>
       </c>
@@ -20463,7 +20469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>92</v>
       </c>
@@ -20498,7 +20504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>92</v>
       </c>
@@ -20533,7 +20539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>92</v>
       </c>
@@ -20568,7 +20574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>92</v>
       </c>
@@ -20603,7 +20609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>92</v>
       </c>
@@ -20638,7 +20644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>92</v>
       </c>
@@ -20673,7 +20679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>92</v>
       </c>
@@ -20708,7 +20714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>92</v>
       </c>
@@ -20743,7 +20749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>92</v>
       </c>
@@ -20778,7 +20784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>92</v>
       </c>
@@ -20813,7 +20819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>92</v>
       </c>
@@ -20848,7 +20854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>92</v>
       </c>
@@ -20883,7 +20889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>92</v>
       </c>
@@ -20911,14 +20917,14 @@
       </c>
       <c r="I428" t="str">
         <f>IF(VLOOKUP(B428,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B428,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J428">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>92</v>
       </c>
@@ -20946,14 +20952,14 @@
       </c>
       <c r="I429" t="str">
         <f>IF(VLOOKUP(B429,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B429,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J429">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>92</v>
       </c>
@@ -20981,14 +20987,14 @@
       </c>
       <c r="I430" t="str">
         <f>IF(VLOOKUP(B430,Keywords!G:H,2,FALSE)=0,"",VLOOKUP(B430,Keywords!G:H,2,FALSE))</f>
-        <v/>
+        <v>Analyst</v>
       </c>
       <c r="J430">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>92</v>
       </c>
@@ -21055,10 +21061,10 @@
       </c>
       <c r="J432">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>92</v>
       </c>
@@ -21093,7 +21099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>92</v>
       </c>
@@ -21128,7 +21134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>92</v>
       </c>
@@ -21163,7 +21169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>92</v>
       </c>
@@ -21198,7 +21204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>92</v>
       </c>
@@ -21233,7 +21239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>92</v>
       </c>
@@ -21268,7 +21274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>92</v>
       </c>
@@ -21303,7 +21309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>92</v>
       </c>
@@ -21338,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>92</v>
       </c>
@@ -21373,14 +21379,704 @@
         <v>1</v>
       </c>
     </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>41</v>
+      </c>
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" t="s">
+        <v>8</v>
+      </c>
+      <c r="E442" t="s">
+        <v>42</v>
+      </c>
+      <c r="F442" s="3">
+        <v>95000</v>
+      </c>
+      <c r="G442" s="3">
+        <v>140000</v>
+      </c>
+      <c r="H442" s="3">
+        <v>118000</v>
+      </c>
+      <c r="I442" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>41</v>
+      </c>
+      <c r="B443" t="s">
+        <v>28</v>
+      </c>
+      <c r="C443" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" t="s">
+        <v>8</v>
+      </c>
+      <c r="E443" t="s">
+        <v>42</v>
+      </c>
+      <c r="F443" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G443" s="3">
+        <v>95000</v>
+      </c>
+      <c r="H443" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I443" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>41</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444" t="s">
+        <v>7</v>
+      </c>
+      <c r="D444" t="s">
+        <v>8</v>
+      </c>
+      <c r="E444" t="s">
+        <v>45</v>
+      </c>
+      <c r="F444" s="3">
+        <v>600</v>
+      </c>
+      <c r="G444" s="3">
+        <v>880</v>
+      </c>
+      <c r="H444" s="3">
+        <v>744</v>
+      </c>
+      <c r="I444" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>41</v>
+      </c>
+      <c r="B445" t="s">
+        <v>28</v>
+      </c>
+      <c r="C445" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445" t="s">
+        <v>8</v>
+      </c>
+      <c r="E445" t="s">
+        <v>45</v>
+      </c>
+      <c r="F445" s="3">
+        <v>400</v>
+      </c>
+      <c r="G445" s="3">
+        <v>600</v>
+      </c>
+      <c r="H445" s="3">
+        <v>504</v>
+      </c>
+      <c r="I445" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>41</v>
+      </c>
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C446" t="s">
+        <v>7</v>
+      </c>
+      <c r="D446" t="s">
+        <v>59</v>
+      </c>
+      <c r="E446" t="s">
+        <v>42</v>
+      </c>
+      <c r="F446" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G446" s="3">
+        <v>140000</v>
+      </c>
+      <c r="H446" s="3">
+        <v>105000</v>
+      </c>
+      <c r="I446" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>41</v>
+      </c>
+      <c r="B447" t="s">
+        <v>10</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" t="s">
+        <v>59</v>
+      </c>
+      <c r="E447" t="s">
+        <v>45</v>
+      </c>
+      <c r="F447" s="3">
+        <v>480</v>
+      </c>
+      <c r="G447" s="3">
+        <v>800</v>
+      </c>
+      <c r="H447" s="3">
+        <v>640</v>
+      </c>
+      <c r="I447" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>41</v>
+      </c>
+      <c r="B448" t="s">
+        <v>61</v>
+      </c>
+      <c r="C448" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" t="s">
+        <v>66</v>
+      </c>
+      <c r="E448" t="s">
+        <v>42</v>
+      </c>
+      <c r="F448" s="3">
+        <v>120000</v>
+      </c>
+      <c r="G448" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H448" s="3">
+        <v>135000</v>
+      </c>
+      <c r="I448" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>41</v>
+      </c>
+      <c r="B449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" t="s">
+        <v>66</v>
+      </c>
+      <c r="E449" t="s">
+        <v>42</v>
+      </c>
+      <c r="F449" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G449" s="3">
+        <v>120000</v>
+      </c>
+      <c r="H449" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I449" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>41</v>
+      </c>
+      <c r="B450" t="s">
+        <v>61</v>
+      </c>
+      <c r="C450" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" t="s">
+        <v>66</v>
+      </c>
+      <c r="E450" t="s">
+        <v>45</v>
+      </c>
+      <c r="F450" s="3">
+        <v>600</v>
+      </c>
+      <c r="G450" s="3">
+        <v>800</v>
+      </c>
+      <c r="H450" s="3">
+        <v>704</v>
+      </c>
+      <c r="I450" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>41</v>
+      </c>
+      <c r="B451" t="s">
+        <v>10</v>
+      </c>
+      <c r="C451" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" t="s">
+        <v>66</v>
+      </c>
+      <c r="E451" t="s">
+        <v>45</v>
+      </c>
+      <c r="F451" s="3">
+        <v>520</v>
+      </c>
+      <c r="G451" s="3">
+        <v>640</v>
+      </c>
+      <c r="H451" s="3">
+        <v>584</v>
+      </c>
+      <c r="I451" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>41</v>
+      </c>
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452" t="s">
+        <v>85</v>
+      </c>
+      <c r="E452" t="s">
+        <v>42</v>
+      </c>
+      <c r="F452" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G452" s="3">
+        <v>140000</v>
+      </c>
+      <c r="H452" s="3">
+        <v>103000</v>
+      </c>
+      <c r="I452" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>41</v>
+      </c>
+      <c r="B453" t="s">
+        <v>10</v>
+      </c>
+      <c r="C453" t="s">
+        <v>7</v>
+      </c>
+      <c r="D453" t="s">
+        <v>85</v>
+      </c>
+      <c r="E453" t="s">
+        <v>45</v>
+      </c>
+      <c r="F453" s="3">
+        <v>320</v>
+      </c>
+      <c r="G453" s="3">
+        <v>960</v>
+      </c>
+      <c r="H453" s="3">
+        <v>640</v>
+      </c>
+      <c r="I453" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>92</v>
+      </c>
+      <c r="B454" t="s">
+        <v>10</v>
+      </c>
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" t="s">
+        <v>8</v>
+      </c>
+      <c r="E454" t="s">
+        <v>42</v>
+      </c>
+      <c r="F454" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G454" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H454" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I454" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>92</v>
+      </c>
+      <c r="B455" t="s">
+        <v>10</v>
+      </c>
+      <c r="C455" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" t="s">
+        <v>8</v>
+      </c>
+      <c r="E455" t="s">
+        <v>45</v>
+      </c>
+      <c r="F455" s="3">
+        <v>470</v>
+      </c>
+      <c r="G455" s="3">
+        <v>735</v>
+      </c>
+      <c r="H455" s="3">
+        <v>603</v>
+      </c>
+      <c r="I455" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>92</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" t="s">
+        <v>85</v>
+      </c>
+      <c r="E456" t="s">
+        <v>42</v>
+      </c>
+      <c r="F456" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G456" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H456" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I456" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>92</v>
+      </c>
+      <c r="B457" t="s">
+        <v>10</v>
+      </c>
+      <c r="C457" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" t="s">
+        <v>85</v>
+      </c>
+      <c r="E457" t="s">
+        <v>45</v>
+      </c>
+      <c r="F457" s="3">
+        <v>470</v>
+      </c>
+      <c r="G457" s="3">
+        <v>950</v>
+      </c>
+      <c r="H457" s="3">
+        <v>710</v>
+      </c>
+      <c r="I457" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>92</v>
+      </c>
+      <c r="B458" t="s">
+        <v>10</v>
+      </c>
+      <c r="C458" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" t="s">
+        <v>59</v>
+      </c>
+      <c r="E458" t="s">
+        <v>42</v>
+      </c>
+      <c r="F458" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G458" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H458" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I458" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>92</v>
+      </c>
+      <c r="B459" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" t="s">
+        <v>59</v>
+      </c>
+      <c r="E459" t="s">
+        <v>45</v>
+      </c>
+      <c r="F459" s="3">
+        <v>550</v>
+      </c>
+      <c r="G459" s="3">
+        <v>750</v>
+      </c>
+      <c r="H459" s="3">
+        <v>650</v>
+      </c>
+      <c r="I459" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>92</v>
+      </c>
+      <c r="B460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" t="s">
+        <v>56</v>
+      </c>
+      <c r="E460" t="s">
+        <v>42</v>
+      </c>
+      <c r="F460" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G460" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H460" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I460" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>92</v>
+      </c>
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" t="s">
+        <v>56</v>
+      </c>
+      <c r="E461" t="s">
+        <v>45</v>
+      </c>
+      <c r="F461" s="3">
+        <v>650</v>
+      </c>
+      <c r="G461" s="3">
+        <v>800</v>
+      </c>
+      <c r="H461" s="3">
+        <v>725</v>
+      </c>
+      <c r="I461" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>92</v>
+      </c>
+      <c r="B462" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462" t="s">
+        <v>57</v>
+      </c>
+      <c r="E462" t="s">
+        <v>42</v>
+      </c>
+      <c r="F462" s="3">
+        <v>85000</v>
+      </c>
+      <c r="G462" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H462" s="3">
+        <v>108000</v>
+      </c>
+      <c r="I462" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>92</v>
+      </c>
+      <c r="B463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" t="s">
+        <v>57</v>
+      </c>
+      <c r="E463" t="s">
+        <v>45</v>
+      </c>
+      <c r="F463" s="3">
+        <v>450</v>
+      </c>
+      <c r="G463" s="3">
+        <v>700</v>
+      </c>
+      <c r="H463" s="3">
+        <v>575</v>
+      </c>
+      <c r="I463" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>92</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464" t="s">
+        <v>66</v>
+      </c>
+      <c r="E464" t="s">
+        <v>42</v>
+      </c>
+      <c r="F464" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G464" s="3">
+        <v>130000</v>
+      </c>
+      <c r="H464" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I464" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>92</v>
+      </c>
+      <c r="B465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" t="s">
+        <v>66</v>
+      </c>
+      <c r="E465" t="s">
+        <v>45</v>
+      </c>
+      <c r="F465" s="3">
+        <v>470</v>
+      </c>
+      <c r="G465" s="3">
+        <v>735</v>
+      </c>
+      <c r="H465" s="3">
+        <v>603</v>
+      </c>
+      <c r="I465" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J441" xr:uid="{040D6B7E-D42F-4E80-BE8A-3CBD727B1988}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Data Analyst"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J465" xr:uid="{040D6B7E-D42F-4E80-BE8A-3CBD727B1988}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -21390,8 +22086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAF2F04-B389-40D9-AA61-F22AD204300D}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21437,10 +22133,13 @@
         <v>Data Scientist</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -21461,6 +22160,9 @@
       <c r="G3" t="s">
         <v>37</v>
       </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -21519,29 +22221,35 @@
         <v>Project Manager</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Project Analyst</v>
       </c>
-      <c r="C7" t="e">
+      <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>Project Analyst</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -21557,10 +22265,13 @@
         <v>Analyst</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -21575,6 +22286,9 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
@@ -21586,13 +22300,16 @@
       <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Big Data</v>
       </c>
-      <c r="C10" t="e">
+      <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>Big Data</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -21605,6 +22322,9 @@
       <c r="G11" t="s">
         <v>87</v>
       </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -21664,6 +22384,9 @@
       <c r="G18" t="s">
         <v>54</v>
       </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
@@ -21726,11 +22449,17 @@
       <c r="G28" t="s">
         <v>40</v>
       </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G29" t="s">
         <v>25</v>
       </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G30" t="s">
@@ -21776,6 +22505,9 @@
       <c r="G35" t="s">
         <v>39</v>
       </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G36" t="s">
@@ -21797,11 +22529,17 @@
       <c r="G38" t="s">
         <v>63</v>
       </c>
+      <c r="H38" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G39" t="s">
         <v>58</v>
       </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G40" t="s">
@@ -21834,6 +22572,9 @@
     <row r="45" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G45" t="s">
         <v>60</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.35">
